--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_12_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_12_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-818280.2230391253</v>
+        <v>-820180.8756923</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3260304.564877296</v>
+        <v>3260304.564877297</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.913048077374695e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>15.26809192273228</v>
       </c>
       <c r="U8" t="n">
-        <v>6.84140014930867</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1218,55 +1218,55 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F9" t="n">
+      <c r="S9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="G9" t="n">
-        <v>13.47865120333094</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>12.73205987707309</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>10.75721046822443</v>
       </c>
       <c r="T10" t="n">
-        <v>10.75721046822443</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>366.0487960435703</v>
+        <v>83.16559668045619</v>
       </c>
       <c r="C11" t="n">
         <v>348.5878461510973</v>
       </c>
       <c r="D11" t="n">
-        <v>337.9979960007727</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>365.2453244523516</v>
+        <v>365.2453244523515</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>390.1910001218012</v>
       </c>
       <c r="G11" t="n">
-        <v>395.9982052189663</v>
+        <v>395.9982052189662</v>
       </c>
       <c r="H11" t="n">
         <v>295.962938572624</v>
       </c>
       <c r="I11" t="n">
-        <v>92.80308386403772</v>
+        <v>92.80308386403767</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.6434713310933</v>
+        <v>132.6434713310932</v>
       </c>
       <c r="T11" t="n">
         <v>194.9440010188993</v>
       </c>
       <c r="U11" t="n">
-        <v>234.4510483538256</v>
+        <v>234.4510483538255</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>311.0672128502246</v>
       </c>
       <c r="W11" t="n">
-        <v>332.5559230975028</v>
+        <v>332.5559230975027</v>
       </c>
       <c r="X11" t="n">
-        <v>63.8701796305549</v>
+        <v>353.0460550585587</v>
       </c>
       <c r="Y11" t="n">
-        <v>369.5528930361434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>13.13885744941075</v>
+        <v>13.13885744941074</v>
       </c>
       <c r="S12" t="n">
         <v>145.650014397269</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>158.772754955124</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>128.736002403021</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>150.1309221946284</v>
       </c>
       <c r="H13" t="n">
-        <v>135.0952060697672</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.854305783473</v>
       </c>
       <c r="T13" t="n">
         <v>206.2400399388945</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>235.4525977039177</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>119.1717254215447</v>
       </c>
       <c r="X13" t="n">
         <v>209.0246097691269</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>201.8996077321845</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>348.5878461510973</v>
       </c>
       <c r="D14" t="n">
-        <v>337.9979960007727</v>
+        <v>291.3018423067841</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>390.1910001218012</v>
       </c>
       <c r="G14" t="n">
-        <v>395.9982052189663</v>
+        <v>395.9982052189662</v>
       </c>
       <c r="H14" t="n">
         <v>295.962938572624</v>
       </c>
       <c r="I14" t="n">
-        <v>92.80308386403772</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.6434713310933</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>194.9440010188993</v>
       </c>
       <c r="U14" t="n">
-        <v>234.4510483538256</v>
+        <v>234.4510483538255</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>311.0672128502246</v>
       </c>
       <c r="W14" t="n">
-        <v>332.5559230975028</v>
+        <v>332.5559230975027</v>
       </c>
       <c r="X14" t="n">
-        <v>353.0460550585588</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>55.43134193868921</v>
+        <v>369.5528930361433</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>13.13885744941075</v>
+        <v>13.13885744941074</v>
       </c>
       <c r="S15" t="n">
         <v>145.650014397269</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>49.33638310649878</v>
       </c>
       <c r="D16" t="n">
         <v>131.9304273983021</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>150.1309221946284</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.0952060697672</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>103.4296276047334</v>
+        <v>103.4296276047333</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>4.17134527158955</v>
+        <v>206.2400399388945</v>
       </c>
       <c r="U16" t="n">
-        <v>269.5698921978214</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>235.4525977039177</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.8379527166807</v>
       </c>
       <c r="X16" t="n">
         <v>209.0246097691269</v>
       </c>
       <c r="Y16" t="n">
-        <v>201.8996077321845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.61453210442458</v>
+        <v>66.6145321044246</v>
       </c>
       <c r="T17" t="n">
         <v>128.9150617922306</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.61453210442458</v>
+        <v>66.6145321044246</v>
       </c>
       <c r="T20" t="n">
         <v>128.9150617922306</v>
@@ -2336,7 +2336,7 @@
         <v>229.9339993459553</v>
       </c>
       <c r="I23" t="n">
-        <v>26.77414463736903</v>
+        <v>26.77414463736905</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.61453210442457</v>
+        <v>66.6145321044246</v>
       </c>
       <c r="T23" t="n">
         <v>128.9150617922306</v>
@@ -2384,7 +2384,7 @@
         <v>287.0171158318901</v>
       </c>
       <c r="Y23" t="n">
-        <v>303.5239538094746</v>
+        <v>303.5239538094747</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.11799533535836</v>
+        <v>97.11799533535837</v>
       </c>
       <c r="C25" t="n">
-        <v>84.5328362520489</v>
+        <v>84.53283625204891</v>
       </c>
       <c r="D25" t="n">
-        <v>65.90148817163342</v>
+        <v>65.90148817163343</v>
       </c>
       <c r="E25" t="n">
-        <v>63.71997779999023</v>
+        <v>63.71997779999025</v>
       </c>
       <c r="F25" t="n">
-        <v>62.70706317635231</v>
+        <v>62.70706317635232</v>
       </c>
       <c r="G25" t="n">
-        <v>84.10198296795974</v>
+        <v>84.10198296795976</v>
       </c>
       <c r="H25" t="n">
         <v>69.0662668430985</v>
       </c>
       <c r="I25" t="n">
-        <v>37.40068837806467</v>
+        <v>37.40068837806468</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>41.7466147466933</v>
       </c>
       <c r="S25" t="n">
-        <v>120.8253665568043</v>
+        <v>120.8253665568044</v>
       </c>
       <c r="T25" t="n">
         <v>140.2111007122259</v>
@@ -2573,7 +2573,7 @@
         <v>233.893123595871</v>
       </c>
       <c r="I26" t="n">
-        <v>30.73326888728474</v>
+        <v>30.73326888728478</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.57365635434029</v>
+        <v>70.57365635434034</v>
       </c>
       <c r="T26" t="n">
         <v>132.8741860421463</v>
@@ -2621,7 +2621,7 @@
         <v>290.9762400818058</v>
       </c>
       <c r="Y26" t="n">
-        <v>307.4830780593903</v>
+        <v>307.4830780593904</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>101.0771195852741</v>
       </c>
       <c r="C28" t="n">
-        <v>88.4919605019646</v>
+        <v>88.49196050196464</v>
       </c>
       <c r="D28" t="n">
-        <v>69.86061242154912</v>
+        <v>69.86061242154916</v>
       </c>
       <c r="E28" t="n">
-        <v>67.67910204990594</v>
+        <v>67.67910204990598</v>
       </c>
       <c r="F28" t="n">
-        <v>66.66618742626801</v>
+        <v>66.66618742626805</v>
       </c>
       <c r="G28" t="n">
-        <v>35.03223042846597</v>
+        <v>88.06110721787549</v>
       </c>
       <c r="H28" t="n">
-        <v>73.02539109301421</v>
+        <v>73.02539109301424</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.35981262798041</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>45.70573899660899</v>
+        <v>45.70573899660904</v>
       </c>
       <c r="S28" t="n">
-        <v>124.78449080672</v>
+        <v>30.39580138932894</v>
       </c>
       <c r="T28" t="n">
         <v>144.1702249621416</v>
@@ -2810,7 +2810,7 @@
         <v>233.893123595871</v>
       </c>
       <c r="I29" t="n">
-        <v>30.73326888728475</v>
+        <v>30.73326888728478</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.57365635434029</v>
+        <v>70.57365635434032</v>
       </c>
       <c r="T29" t="n">
         <v>132.8741860421463</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.36753221778885</v>
+        <v>101.0771195852741</v>
       </c>
       <c r="C31" t="n">
-        <v>88.49196050196461</v>
+        <v>88.49196050196464</v>
       </c>
       <c r="D31" t="n">
-        <v>69.86061242154913</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>67.67910204990598</v>
       </c>
       <c r="F31" t="n">
-        <v>66.66618742626802</v>
+        <v>66.66618742626805</v>
       </c>
       <c r="G31" t="n">
-        <v>88.06110721787546</v>
+        <v>88.06110721787549</v>
       </c>
       <c r="H31" t="n">
-        <v>73.02539109301422</v>
+        <v>73.02539109301425</v>
       </c>
       <c r="I31" t="n">
-        <v>41.35981262798039</v>
+        <v>16.83173563213792</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>45.70573899660901</v>
+        <v>45.70573899660904</v>
       </c>
       <c r="S31" t="n">
         <v>124.7844908067201</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>300.0198568169017</v>
+        <v>300.0198568169016</v>
       </c>
       <c r="C32" t="n">
         <v>282.5589069244286</v>
@@ -3035,7 +3035,7 @@
         <v>271.969056774104</v>
       </c>
       <c r="E32" t="n">
-        <v>299.2163852256829</v>
+        <v>299.2163852256828</v>
       </c>
       <c r="F32" t="n">
         <v>324.1620608951325</v>
@@ -3047,7 +3047,7 @@
         <v>229.9339993459553</v>
       </c>
       <c r="I32" t="n">
-        <v>26.77414463736905</v>
+        <v>26.77414463736901</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.61453210442458</v>
+        <v>66.61453210442455</v>
       </c>
       <c r="T32" t="n">
         <v>128.9150617922306</v>
@@ -3086,16 +3086,16 @@
         <v>168.4221091271569</v>
       </c>
       <c r="V32" t="n">
-        <v>245.038273623556</v>
+        <v>245.0382736235559</v>
       </c>
       <c r="W32" t="n">
-        <v>266.5269838708341</v>
+        <v>266.526983870834</v>
       </c>
       <c r="X32" t="n">
         <v>287.0171158318901</v>
       </c>
       <c r="Y32" t="n">
-        <v>303.5239538094747</v>
+        <v>303.5239538094746</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.11799533535837</v>
+        <v>97.11799533535833</v>
       </c>
       <c r="C34" t="n">
-        <v>84.53283625204891</v>
+        <v>84.53283625204887</v>
       </c>
       <c r="D34" t="n">
-        <v>65.90148817163343</v>
+        <v>65.90148817163339</v>
       </c>
       <c r="E34" t="n">
-        <v>63.71997779999025</v>
+        <v>63.7199777999902</v>
       </c>
       <c r="F34" t="n">
-        <v>62.70706317635232</v>
+        <v>62.70706317635228</v>
       </c>
       <c r="G34" t="n">
-        <v>84.10198296795976</v>
+        <v>84.10198296795971</v>
       </c>
       <c r="H34" t="n">
-        <v>69.06626684309852</v>
+        <v>69.06626684309846</v>
       </c>
       <c r="I34" t="n">
-        <v>37.40068837806469</v>
+        <v>37.40068837806464</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.74661474669331</v>
+        <v>41.74661474669326</v>
       </c>
       <c r="S34" t="n">
-        <v>120.8253665568044</v>
+        <v>120.8253665568043</v>
       </c>
       <c r="T34" t="n">
-        <v>140.2111007122259</v>
+        <v>140.2111007122258</v>
       </c>
       <c r="U34" t="n">
-        <v>203.5409529711527</v>
+        <v>203.5409529711526</v>
       </c>
       <c r="V34" t="n">
-        <v>169.4236584772491</v>
+        <v>169.423658477249</v>
       </c>
       <c r="W34" t="n">
-        <v>203.8090134900121</v>
+        <v>203.809013490012</v>
       </c>
       <c r="X34" t="n">
         <v>142.9956705424582</v>
       </c>
       <c r="Y34" t="n">
-        <v>135.8706685055159</v>
+        <v>135.8706685055158</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>229.9339993459553</v>
       </c>
       <c r="I35" t="n">
-        <v>26.77414463736902</v>
+        <v>26.77414463736901</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.11799533535834</v>
+        <v>97.11799533535833</v>
       </c>
       <c r="C37" t="n">
-        <v>84.53283625204888</v>
+        <v>84.53283625204887</v>
       </c>
       <c r="D37" t="n">
-        <v>65.9014881716334</v>
+        <v>65.90148817163339</v>
       </c>
       <c r="E37" t="n">
-        <v>63.71997779999022</v>
+        <v>63.7199777999902</v>
       </c>
       <c r="F37" t="n">
-        <v>62.70706317635229</v>
+        <v>62.70706317635228</v>
       </c>
       <c r="G37" t="n">
-        <v>84.10198296795973</v>
+        <v>84.10198296795971</v>
       </c>
       <c r="H37" t="n">
-        <v>69.06626684309849</v>
+        <v>69.06626684309846</v>
       </c>
       <c r="I37" t="n">
-        <v>37.40068837806466</v>
+        <v>37.40068837806464</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.74661474669328</v>
+        <v>41.74661474669326</v>
       </c>
       <c r="S37" t="n">
         <v>120.8253665568043</v>
       </c>
       <c r="T37" t="n">
-        <v>140.2111007122259</v>
+        <v>140.2111007122258</v>
       </c>
       <c r="U37" t="n">
         <v>203.5409529711526</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>300.0198568169015</v>
+        <v>300.0198568169016</v>
       </c>
       <c r="C38" t="n">
-        <v>282.5589069244285</v>
+        <v>282.5589069244286</v>
       </c>
       <c r="D38" t="n">
-        <v>271.9690567741039</v>
+        <v>271.969056774104</v>
       </c>
       <c r="E38" t="n">
-        <v>299.2163852256827</v>
+        <v>299.2163852256828</v>
       </c>
       <c r="F38" t="n">
-        <v>324.1620608951324</v>
+        <v>324.1620608951325</v>
       </c>
       <c r="G38" t="n">
-        <v>329.9692659922974</v>
+        <v>329.9692659922976</v>
       </c>
       <c r="H38" t="n">
-        <v>229.9339993459552</v>
+        <v>229.9339993459553</v>
       </c>
       <c r="I38" t="n">
-        <v>26.77414463736889</v>
+        <v>26.77414463736899</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.61453210442443</v>
+        <v>66.61453210442453</v>
       </c>
       <c r="T38" t="n">
-        <v>128.9150617922305</v>
+        <v>128.9150617922306</v>
       </c>
       <c r="U38" t="n">
-        <v>168.4221091271567</v>
+        <v>168.4221091271568</v>
       </c>
       <c r="V38" t="n">
-        <v>245.0382736235558</v>
+        <v>245.0382736235559</v>
       </c>
       <c r="W38" t="n">
-        <v>266.5269838708339</v>
+        <v>266.526983870834</v>
       </c>
       <c r="X38" t="n">
-        <v>287.01711583189</v>
+        <v>287.0171158318901</v>
       </c>
       <c r="Y38" t="n">
-        <v>303.5239538094745</v>
+        <v>303.5239538094746</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.11799533535822</v>
+        <v>97.11799533535832</v>
       </c>
       <c r="C40" t="n">
-        <v>84.53283625204875</v>
+        <v>84.53283625204885</v>
       </c>
       <c r="D40" t="n">
-        <v>65.90148817163328</v>
+        <v>65.90148817163337</v>
       </c>
       <c r="E40" t="n">
-        <v>63.71997779999009</v>
+        <v>63.71997779999019</v>
       </c>
       <c r="F40" t="n">
-        <v>62.70706317635216</v>
+        <v>62.70706317635226</v>
       </c>
       <c r="G40" t="n">
-        <v>84.1019829679596</v>
+        <v>84.1019829679597</v>
       </c>
       <c r="H40" t="n">
-        <v>69.06626684309835</v>
+        <v>69.06626684309845</v>
       </c>
       <c r="I40" t="n">
-        <v>37.40068837806452</v>
+        <v>37.40068837806462</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.74661474669315</v>
+        <v>41.74661474669325</v>
       </c>
       <c r="S40" t="n">
-        <v>120.8253665568042</v>
+        <v>120.8253665568043</v>
       </c>
       <c r="T40" t="n">
-        <v>140.2111007122257</v>
+        <v>140.2111007122258</v>
       </c>
       <c r="U40" t="n">
-        <v>203.5409529711525</v>
+        <v>203.5409529711526</v>
       </c>
       <c r="V40" t="n">
-        <v>169.4236584772489</v>
+        <v>169.423658477249</v>
       </c>
       <c r="W40" t="n">
-        <v>203.8090134900119</v>
+        <v>203.809013490012</v>
       </c>
       <c r="X40" t="n">
-        <v>142.9956705424581</v>
+        <v>142.9956705424582</v>
       </c>
       <c r="Y40" t="n">
-        <v>135.8706685055157</v>
+        <v>135.8706685055158</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0198568169016</v>
+        <v>300.0198568169017</v>
       </c>
       <c r="C41" t="n">
         <v>282.5589069244286</v>
@@ -3746,7 +3746,7 @@
         <v>271.969056774104</v>
       </c>
       <c r="E41" t="n">
-        <v>299.2163852256828</v>
+        <v>299.2163852256829</v>
       </c>
       <c r="F41" t="n">
         <v>324.1620608951325</v>
@@ -3758,7 +3758,7 @@
         <v>229.9339993459553</v>
       </c>
       <c r="I41" t="n">
-        <v>26.77414463736902</v>
+        <v>26.77414463736905</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.61453210442455</v>
+        <v>66.61453210442458</v>
       </c>
       <c r="T41" t="n">
         <v>128.9150617922306</v>
@@ -3797,16 +3797,16 @@
         <v>168.4221091271569</v>
       </c>
       <c r="V41" t="n">
-        <v>245.0382736235559</v>
+        <v>245.038273623556</v>
       </c>
       <c r="W41" t="n">
-        <v>266.526983870834</v>
+        <v>266.5269838708341</v>
       </c>
       <c r="X41" t="n">
         <v>287.0171158318901</v>
       </c>
       <c r="Y41" t="n">
-        <v>303.5239538094746</v>
+        <v>303.5239538094747</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.11799533535834</v>
+        <v>97.11799533535837</v>
       </c>
       <c r="C43" t="n">
-        <v>84.53283625204888</v>
+        <v>84.53283625204891</v>
       </c>
       <c r="D43" t="n">
-        <v>65.9014881716334</v>
+        <v>65.90148817163343</v>
       </c>
       <c r="E43" t="n">
-        <v>63.71997779999022</v>
+        <v>63.71997779999025</v>
       </c>
       <c r="F43" t="n">
-        <v>62.70706317635229</v>
+        <v>62.70706317635232</v>
       </c>
       <c r="G43" t="n">
-        <v>84.10198296795973</v>
+        <v>84.10198296795976</v>
       </c>
       <c r="H43" t="n">
-        <v>69.06626684309849</v>
+        <v>69.06626684309852</v>
       </c>
       <c r="I43" t="n">
-        <v>37.40068837806466</v>
+        <v>37.40068837806469</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.74661474669328</v>
+        <v>41.74661474669331</v>
       </c>
       <c r="S43" t="n">
-        <v>120.8253665568043</v>
+        <v>120.8253665568044</v>
       </c>
       <c r="T43" t="n">
         <v>140.2111007122259</v>
       </c>
       <c r="U43" t="n">
-        <v>203.5409529711526</v>
+        <v>203.5409529711527</v>
       </c>
       <c r="V43" t="n">
-        <v>169.423658477249</v>
+        <v>169.4236584772491</v>
       </c>
       <c r="W43" t="n">
-        <v>203.809013490012</v>
+        <v>203.8090134900121</v>
       </c>
       <c r="X43" t="n">
         <v>142.9956705424582</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.8706685055158</v>
+        <v>135.8706685055159</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0198568169016</v>
+        <v>300.0198568169017</v>
       </c>
       <c r="C44" t="n">
         <v>282.5589069244286</v>
@@ -3983,7 +3983,7 @@
         <v>271.969056774104</v>
       </c>
       <c r="E44" t="n">
-        <v>299.2163852256828</v>
+        <v>299.2163852256829</v>
       </c>
       <c r="F44" t="n">
         <v>324.1620608951325</v>
@@ -3995,7 +3995,7 @@
         <v>229.9339993459553</v>
       </c>
       <c r="I44" t="n">
-        <v>26.77414463736902</v>
+        <v>26.77414463736905</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.61453210442455</v>
+        <v>66.61453210442458</v>
       </c>
       <c r="T44" t="n">
         <v>128.9150617922306</v>
@@ -4034,16 +4034,16 @@
         <v>168.4221091271569</v>
       </c>
       <c r="V44" t="n">
-        <v>245.0382736235559</v>
+        <v>245.038273623556</v>
       </c>
       <c r="W44" t="n">
-        <v>266.526983870834</v>
+        <v>266.5269838708341</v>
       </c>
       <c r="X44" t="n">
         <v>287.0171158318901</v>
       </c>
       <c r="Y44" t="n">
-        <v>303.5239538094746</v>
+        <v>303.5239538094747</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.11799533535834</v>
+        <v>97.11799533535837</v>
       </c>
       <c r="C46" t="n">
-        <v>84.53283625204888</v>
+        <v>84.53283625204891</v>
       </c>
       <c r="D46" t="n">
-        <v>65.9014881716334</v>
+        <v>65.90148817163343</v>
       </c>
       <c r="E46" t="n">
-        <v>63.71997779999022</v>
+        <v>63.71997779999025</v>
       </c>
       <c r="F46" t="n">
-        <v>62.70706317635229</v>
+        <v>62.70706317635232</v>
       </c>
       <c r="G46" t="n">
-        <v>84.10198296795973</v>
+        <v>84.10198296795976</v>
       </c>
       <c r="H46" t="n">
-        <v>69.06626684309848</v>
+        <v>69.0662668430985</v>
       </c>
       <c r="I46" t="n">
-        <v>37.40068837806465</v>
+        <v>37.40068837806468</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.74661474669328</v>
+        <v>41.7466147466933</v>
       </c>
       <c r="S46" t="n">
-        <v>120.8253665568043</v>
+        <v>120.8253665568044</v>
       </c>
       <c r="T46" t="n">
-        <v>140.2111007122258</v>
+        <v>140.2111007122259</v>
       </c>
       <c r="U46" t="n">
-        <v>203.5409529711526</v>
+        <v>203.5409529711527</v>
       </c>
       <c r="V46" t="n">
-        <v>169.423658477249</v>
+        <v>169.4236584772491</v>
       </c>
       <c r="W46" t="n">
-        <v>203.809013490012</v>
+        <v>203.8090134900121</v>
       </c>
       <c r="X46" t="n">
         <v>142.9956705424582</v>
       </c>
       <c r="Y46" t="n">
-        <v>135.8706685055158</v>
+        <v>135.8706685055159</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.35964864507468e-12</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.003078866035046e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4346,34 +4346,34 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4428,25 +4428,25 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.35964864507468e-12</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.003078866035046e-13</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -4498,16 +4498,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.368789526168257e-12</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.35964864507468e-12</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.003078866035046e-13</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.20882949099123</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="C8" t="n">
-        <v>44.20882949099123</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="D8" t="n">
-        <v>44.20882949099123</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="E8" t="n">
-        <v>44.20882949099123</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="F8" t="n">
         <v>28.75151886964269</v>
@@ -4805,16 +4805,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L8" t="n">
-        <v>31.52363928117821</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="M8" t="n">
-        <v>31.52363928117821</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="N8" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O8" t="n">
         <v>46.0612399205565</v>
@@ -4832,22 +4832,22 @@
         <v>51.11933469231312</v>
       </c>
       <c r="T8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="U8" t="n">
-        <v>44.20882949099123</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="V8" t="n">
-        <v>44.20882949099123</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="W8" t="n">
-        <v>44.20882949099123</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="X8" t="n">
-        <v>44.20882949099123</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.20882949099123</v>
+        <v>35.69701961884617</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="C9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="D9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="E9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="F9" t="n">
-        <v>14.83901819649459</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="G9" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="H9" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I9" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>31.52363928117821</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="M9" t="n">
-        <v>46.6733494211619</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="N9" t="n">
-        <v>61.2109500605402</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O9" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P9" t="n">
         <v>61.2109500605402</v>
@@ -4905,28 +4905,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S9" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T9" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="U9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="V9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="W9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="X9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="Y9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="D10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="E10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="F10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="I10" t="n">
         <v>16.68152962255934</v>
@@ -4987,7 +4987,7 @@
         <v>58.46202002507908</v>
       </c>
       <c r="S10" t="n">
-        <v>58.46202002507908</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="T10" t="n">
         <v>47.59615086525642</v>
@@ -4996,16 +4996,16 @@
         <v>32.13884024390788</v>
       </c>
       <c r="V10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1927.929004854753</v>
+        <v>1980.64921103761</v>
       </c>
       <c r="C11" t="n">
-        <v>1575.820069348594</v>
+        <v>1628.540275531451</v>
       </c>
       <c r="D11" t="n">
-        <v>1234.407952176096</v>
+        <v>1628.540275531451</v>
       </c>
       <c r="E11" t="n">
-        <v>865.473281012105</v>
+        <v>1259.60560436746</v>
       </c>
       <c r="F11" t="n">
-        <v>865.473281012105</v>
+        <v>865.4732810121048</v>
       </c>
       <c r="G11" t="n">
-        <v>465.47509392224</v>
+        <v>465.4750939222399</v>
       </c>
       <c r="H11" t="n">
         <v>166.5226307175693</v>
@@ -5039,10 +5039,10 @@
         <v>72.78214196601606</v>
       </c>
       <c r="J11" t="n">
-        <v>113.6490972008051</v>
+        <v>113.6490972008052</v>
       </c>
       <c r="K11" t="n">
-        <v>546.5405461239003</v>
+        <v>546.5405461239004</v>
       </c>
       <c r="L11" t="n">
         <v>1135.857294935594</v>
@@ -5054,10 +5054,10 @@
         <v>2476.774335647786</v>
       </c>
       <c r="O11" t="n">
-        <v>3062.909781157648</v>
+        <v>2906.372890518161</v>
       </c>
       <c r="P11" t="n">
-        <v>3525.488440269981</v>
+        <v>3368.951549630494</v>
       </c>
       <c r="Q11" t="n">
         <v>3639.107098300803</v>
@@ -5069,22 +5069,22 @@
         <v>3505.123793925961</v>
       </c>
       <c r="T11" t="n">
-        <v>3308.210661583639</v>
+        <v>3308.210661583638</v>
       </c>
       <c r="U11" t="n">
         <v>3071.391420822199</v>
       </c>
       <c r="V11" t="n">
-        <v>3071.391420822199</v>
+        <v>2757.182114912881</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.476346986337</v>
+        <v>2421.26704107702</v>
       </c>
       <c r="X11" t="n">
-        <v>2670.961014026181</v>
+        <v>2064.654864250192</v>
       </c>
       <c r="Y11" t="n">
-        <v>2297.675263484622</v>
+        <v>2064.654864250192</v>
       </c>
     </row>
     <row r="12">
@@ -5121,16 +5121,16 @@
         <v>203.1344985671975</v>
       </c>
       <c r="K12" t="n">
-        <v>290.7276966888604</v>
+        <v>552.5482813313133</v>
       </c>
       <c r="L12" t="n">
-        <v>454.8301023906351</v>
+        <v>839.4060871429919</v>
       </c>
       <c r="M12" t="n">
-        <v>1126.734750918944</v>
+        <v>1050.2627225588</v>
       </c>
       <c r="N12" t="n">
-        <v>1365.734005122468</v>
+        <v>1755.65770120643</v>
       </c>
       <c r="O12" t="n">
         <v>1944.616922238928</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>472.5413701186325</v>
+        <v>357.6925961002894</v>
       </c>
       <c r="C13" t="n">
-        <v>472.5413701186325</v>
+        <v>357.6925961002894</v>
       </c>
       <c r="D13" t="n">
-        <v>339.2783121405496</v>
+        <v>224.4295381222063</v>
       </c>
       <c r="E13" t="n">
-        <v>339.2783121405496</v>
+        <v>224.4295381222063</v>
       </c>
       <c r="F13" t="n">
-        <v>209.241946076892</v>
+        <v>224.4295381222063</v>
       </c>
       <c r="G13" t="n">
-        <v>209.241946076892</v>
+        <v>72.78214196601606</v>
       </c>
       <c r="H13" t="n">
         <v>72.78214196601606</v>
@@ -5197,52 +5197,52 @@
         <v>72.78214196601606</v>
       </c>
       <c r="J13" t="n">
-        <v>79.11733180781908</v>
+        <v>79.11733180781913</v>
       </c>
       <c r="K13" t="n">
-        <v>208.7385578455934</v>
+        <v>208.7385578455936</v>
       </c>
       <c r="L13" t="n">
-        <v>425.5161271204379</v>
+        <v>425.5161271204382</v>
       </c>
       <c r="M13" t="n">
-        <v>663.5688769426961</v>
+        <v>663.5688769426965</v>
       </c>
       <c r="N13" t="n">
-        <v>901.7886466311036</v>
+        <v>901.788646631104</v>
       </c>
       <c r="O13" t="n">
-        <v>1107.067833793538</v>
+        <v>1107.067833793539</v>
       </c>
       <c r="P13" t="n">
-        <v>1261.582984852308</v>
+        <v>1261.582984852309</v>
       </c>
       <c r="Q13" t="n">
-        <v>1290.208039176272</v>
+        <v>1290.208039176273</v>
       </c>
       <c r="R13" t="n">
-        <v>1290.208039176272</v>
+        <v>1290.208039176273</v>
       </c>
       <c r="S13" t="n">
-        <v>1290.208039176272</v>
+        <v>1101.466316162664</v>
       </c>
       <c r="T13" t="n">
-        <v>1081.884766510722</v>
+        <v>893.1430434971138</v>
       </c>
       <c r="U13" t="n">
-        <v>1081.884766510722</v>
+        <v>893.1430434971138</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0538597390881</v>
+        <v>893.1430434971138</v>
       </c>
       <c r="W13" t="n">
-        <v>844.0538597390881</v>
+        <v>772.7675632733312</v>
       </c>
       <c r="X13" t="n">
-        <v>632.9178902753235</v>
+        <v>561.6315938095667</v>
       </c>
       <c r="Y13" t="n">
-        <v>632.9178902753235</v>
+        <v>357.6925961002894</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1953.126657046116</v>
+        <v>1812.218336280433</v>
       </c>
       <c r="C14" t="n">
-        <v>1601.017721539958</v>
+        <v>1460.109400774274</v>
       </c>
       <c r="D14" t="n">
-        <v>1259.60560436746</v>
+        <v>1165.865115615906</v>
       </c>
       <c r="E14" t="n">
-        <v>1259.60560436746</v>
+        <v>1165.865115615906</v>
       </c>
       <c r="F14" t="n">
-        <v>865.473281012105</v>
+        <v>771.7327922605515</v>
       </c>
       <c r="G14" t="n">
-        <v>465.47509392224</v>
+        <v>371.7346051706867</v>
       </c>
       <c r="H14" t="n">
-        <v>166.5226307175693</v>
+        <v>72.78214196601606</v>
       </c>
       <c r="I14" t="n">
         <v>72.78214196601606</v>
       </c>
       <c r="J14" t="n">
-        <v>152.7736074481106</v>
+        <v>281.0547462211582</v>
       </c>
       <c r="K14" t="n">
-        <v>585.6650563712058</v>
+        <v>713.9461951442535</v>
       </c>
       <c r="L14" t="n">
-        <v>1174.9818051829</v>
+        <v>1303.262943955947</v>
       </c>
       <c r="M14" t="n">
-        <v>1847.316782889963</v>
+        <v>1975.597921663011</v>
       </c>
       <c r="N14" t="n">
-        <v>2515.898845895092</v>
+        <v>2320.237445008298</v>
       </c>
       <c r="O14" t="n">
-        <v>3102.034291404954</v>
+        <v>2906.372890518161</v>
       </c>
       <c r="P14" t="n">
-        <v>3564.612950517287</v>
+        <v>3368.951549630494</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.57665843429</v>
+        <v>3639.107098300803</v>
       </c>
       <c r="R14" t="n">
         <v>3639.107098300803</v>
       </c>
       <c r="S14" t="n">
-        <v>3505.123793925961</v>
+        <v>3639.107098300803</v>
       </c>
       <c r="T14" t="n">
-        <v>3308.210661583639</v>
+        <v>3442.19396595848</v>
       </c>
       <c r="U14" t="n">
-        <v>3071.391420822199</v>
+        <v>3205.37472519704</v>
       </c>
       <c r="V14" t="n">
-        <v>3071.391420822199</v>
+        <v>2891.165419287722</v>
       </c>
       <c r="W14" t="n">
-        <v>2735.476346986337</v>
+        <v>2555.250345451861</v>
       </c>
       <c r="X14" t="n">
-        <v>2378.86417015951</v>
+        <v>2555.250345451861</v>
       </c>
       <c r="Y14" t="n">
-        <v>2322.872915675985</v>
+        <v>2181.964594910302</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>203.1344985671975</v>
       </c>
       <c r="K15" t="n">
-        <v>552.5482813313132</v>
+        <v>552.5482813313133</v>
       </c>
       <c r="L15" t="n">
-        <v>1083.782628883512</v>
+        <v>1083.782628883513</v>
       </c>
       <c r="M15" t="n">
-        <v>1755.687277411821</v>
+        <v>1294.639264299321</v>
       </c>
       <c r="N15" t="n">
-        <v>1986.533305459332</v>
+        <v>1525.485292346833</v>
       </c>
       <c r="O15" t="n">
-        <v>2175.492526491831</v>
+        <v>2104.368209463293</v>
       </c>
       <c r="P15" t="n">
         <v>2392.218430766964</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>598.6267715290778</v>
+        <v>360.3543016726162</v>
       </c>
       <c r="C16" t="n">
-        <v>598.6267715290778</v>
+        <v>310.5195712620114</v>
       </c>
       <c r="D16" t="n">
-        <v>465.3637135509948</v>
+        <v>177.2565132839285</v>
       </c>
       <c r="E16" t="n">
-        <v>465.3637135509948</v>
+        <v>177.2565132839285</v>
       </c>
       <c r="F16" t="n">
-        <v>465.3637135509948</v>
+        <v>177.2565132839285</v>
       </c>
       <c r="G16" t="n">
-        <v>313.7163173948044</v>
+        <v>177.2565132839285</v>
       </c>
       <c r="H16" t="n">
         <v>177.2565132839285</v>
@@ -5434,52 +5434,52 @@
         <v>72.78214196601606</v>
       </c>
       <c r="J16" t="n">
-        <v>79.11733180781906</v>
+        <v>79.11733180781914</v>
       </c>
       <c r="K16" t="n">
-        <v>208.7385578455934</v>
+        <v>208.7385578455935</v>
       </c>
       <c r="L16" t="n">
-        <v>425.5161271204379</v>
+        <v>425.5161271204382</v>
       </c>
       <c r="M16" t="n">
-        <v>663.5688769426961</v>
+        <v>663.5688769426964</v>
       </c>
       <c r="N16" t="n">
-        <v>901.7886466311036</v>
+        <v>901.7886466311038</v>
       </c>
       <c r="O16" t="n">
-        <v>1107.067833793538</v>
+        <v>1107.067833793539</v>
       </c>
       <c r="P16" t="n">
-        <v>1261.582984852308</v>
+        <v>1261.582984852309</v>
       </c>
       <c r="Q16" t="n">
-        <v>1290.208039176272</v>
+        <v>1290.208039176273</v>
       </c>
       <c r="R16" t="n">
-        <v>1290.208039176272</v>
+        <v>1290.208039176273</v>
       </c>
       <c r="S16" t="n">
-        <v>1290.208039176272</v>
+        <v>1290.208039176273</v>
       </c>
       <c r="T16" t="n">
-        <v>1285.99455910396</v>
+        <v>1081.884766510723</v>
       </c>
       <c r="U16" t="n">
-        <v>1013.70173870212</v>
+        <v>1081.884766510723</v>
       </c>
       <c r="V16" t="n">
-        <v>1013.70173870212</v>
+        <v>844.0538597390886</v>
       </c>
       <c r="W16" t="n">
-        <v>1013.70173870212</v>
+        <v>571.4902711363808</v>
       </c>
       <c r="X16" t="n">
-        <v>802.5657692383551</v>
+        <v>360.3543016726162</v>
       </c>
       <c r="Y16" t="n">
-        <v>598.6267715290778</v>
+        <v>360.3543016726162</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1569.777003451411</v>
       </c>
       <c r="D17" t="n">
-        <v>1295.06078448767</v>
+        <v>1295.060784487669</v>
       </c>
       <c r="E17" t="n">
-        <v>992.8220115324348</v>
+        <v>992.8220115324341</v>
       </c>
       <c r="F17" t="n">
-        <v>665.3855863858362</v>
+        <v>665.3855863858355</v>
       </c>
       <c r="G17" t="n">
-        <v>332.0832975047275</v>
+        <v>332.0832975047269</v>
       </c>
       <c r="H17" t="n">
         <v>99.82673250881308</v>
@@ -5513,25 +5513,25 @@
         <v>72.78214196601606</v>
       </c>
       <c r="J17" t="n">
-        <v>281.0547462211582</v>
+        <v>278.0161650067709</v>
       </c>
       <c r="K17" t="n">
-        <v>713.9461951442534</v>
+        <v>390.003655484413</v>
       </c>
       <c r="L17" t="n">
-        <v>1303.262943955947</v>
+        <v>979.3204042961067</v>
       </c>
       <c r="M17" t="n">
-        <v>1651.655382003171</v>
+        <v>1651.65538200317</v>
       </c>
       <c r="N17" t="n">
-        <v>2320.2374450083</v>
+        <v>2320.237445008299</v>
       </c>
       <c r="O17" t="n">
-        <v>2906.372890518162</v>
+        <v>2906.372890518161</v>
       </c>
       <c r="P17" t="n">
-        <v>3368.951549630495</v>
+        <v>3368.951549630494</v>
       </c>
       <c r="Q17" t="n">
         <v>3639.107098300803</v>
@@ -5540,7 +5540,7 @@
         <v>3639.107098300803</v>
       </c>
       <c r="S17" t="n">
-        <v>3571.819692134718</v>
+        <v>3571.819692134717</v>
       </c>
       <c r="T17" t="n">
         <v>3441.602458001151</v>
@@ -5549,16 +5549,16 @@
         <v>3271.479115448467</v>
       </c>
       <c r="V17" t="n">
-        <v>3023.965707747906</v>
+        <v>3023.965707747905</v>
       </c>
       <c r="W17" t="n">
-        <v>2754.746532120801</v>
+        <v>2754.7465321208</v>
       </c>
       <c r="X17" t="n">
-        <v>2464.83025350273</v>
+        <v>2464.830253502729</v>
       </c>
       <c r="Y17" t="n">
-        <v>2158.240401169927</v>
+        <v>2158.240401169926</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>72.78214196601606</v>
       </c>
       <c r="J18" t="n">
-        <v>78.3043735801927</v>
+        <v>203.1344985671975</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7181563443085</v>
+        <v>552.5482813313132</v>
       </c>
       <c r="L18" t="n">
-        <v>693.6362149840297</v>
+        <v>924.0313416591478</v>
       </c>
       <c r="M18" t="n">
-        <v>1365.540863512338</v>
+        <v>1134.887977074956</v>
       </c>
       <c r="N18" t="n">
-        <v>2070.935842159968</v>
+        <v>1365.734005122468</v>
       </c>
       <c r="O18" t="n">
-        <v>2259.895063192466</v>
+        <v>1944.616922238928</v>
       </c>
       <c r="P18" t="n">
         <v>2392.218430766964</v>
@@ -5680,7 +5680,7 @@
         <v>621.6220766236439</v>
       </c>
       <c r="M19" t="n">
-        <v>925.0434762803048</v>
+        <v>925.0434762803042</v>
       </c>
       <c r="N19" t="n">
         <v>1228.631895803114</v>
@@ -5732,16 +5732,16 @@
         <v>1569.777003451411</v>
       </c>
       <c r="D20" t="n">
-        <v>1295.06078448767</v>
+        <v>1295.060784487669</v>
       </c>
       <c r="E20" t="n">
-        <v>992.8220115324348</v>
+        <v>992.8220115324343</v>
       </c>
       <c r="F20" t="n">
-        <v>665.3855863858362</v>
+        <v>665.3855863858358</v>
       </c>
       <c r="G20" t="n">
-        <v>332.0832975047274</v>
+        <v>332.0832975047271</v>
       </c>
       <c r="H20" t="n">
         <v>99.82673250881308</v>
@@ -5750,25 +5750,25 @@
         <v>72.78214196601606</v>
       </c>
       <c r="J20" t="n">
-        <v>281.0547462211582</v>
+        <v>167.3040473146236</v>
       </c>
       <c r="K20" t="n">
-        <v>713.9461951442534</v>
+        <v>600.1954962377188</v>
       </c>
       <c r="L20" t="n">
-        <v>1303.262943955947</v>
+        <v>1189.512245049413</v>
       </c>
       <c r="M20" t="n">
-        <v>1651.655382003171</v>
+        <v>1861.847222756476</v>
       </c>
       <c r="N20" t="n">
-        <v>2320.2374450083</v>
+        <v>2530.429285761605</v>
       </c>
       <c r="O20" t="n">
-        <v>2906.372890518162</v>
+        <v>3116.564731271466</v>
       </c>
       <c r="P20" t="n">
-        <v>3368.951549630495</v>
+        <v>3579.1433903838</v>
       </c>
       <c r="Q20" t="n">
         <v>3639.107098300803</v>
@@ -5783,10 +5783,10 @@
         <v>3441.602458001151</v>
       </c>
       <c r="U20" t="n">
-        <v>3271.479115448467</v>
+        <v>3271.479115448466</v>
       </c>
       <c r="V20" t="n">
-        <v>3023.965707747906</v>
+        <v>3023.965707747905</v>
       </c>
       <c r="W20" t="n">
         <v>2754.7465321208</v>
@@ -5829,25 +5829,25 @@
         <v>72.78214196601606</v>
       </c>
       <c r="J21" t="n">
-        <v>78.3043735801927</v>
+        <v>203.1344985671975</v>
       </c>
       <c r="K21" t="n">
-        <v>165.8975717018557</v>
+        <v>552.5482813313132</v>
       </c>
       <c r="L21" t="n">
-        <v>697.1319192540549</v>
+        <v>924.0313416591478</v>
       </c>
       <c r="M21" t="n">
-        <v>1342.864491933447</v>
+        <v>1134.887977074956</v>
       </c>
       <c r="N21" t="n">
-        <v>1573.710519980958</v>
+        <v>1365.734005122468</v>
       </c>
       <c r="O21" t="n">
-        <v>2152.593437097419</v>
+        <v>1944.616922238928</v>
       </c>
       <c r="P21" t="n">
-        <v>2600.194945625454</v>
+        <v>2392.218430766964</v>
       </c>
       <c r="Q21" t="n">
         <v>2638.730416165795</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>544.9339637732362</v>
+        <v>544.9339637732359</v>
       </c>
       <c r="C22" t="n">
-        <v>459.5472604883383</v>
+        <v>459.547260488338</v>
       </c>
       <c r="D22" t="n">
-        <v>392.9801007190116</v>
+        <v>392.9801007190113</v>
       </c>
       <c r="E22" t="n">
-        <v>328.6164867796275</v>
+        <v>328.6164867796272</v>
       </c>
       <c r="F22" t="n">
-        <v>265.2760189247261</v>
+        <v>265.2760189247259</v>
       </c>
       <c r="G22" t="n">
-        <v>180.324520977292</v>
+        <v>180.3245209772917</v>
       </c>
       <c r="H22" t="n">
         <v>110.5606150751723</v>
@@ -5911,25 +5911,25 @@
         <v>144.4859816422211</v>
       </c>
       <c r="K22" t="n">
-        <v>339.4758575143981</v>
+        <v>339.4758575143974</v>
       </c>
       <c r="L22" t="n">
-        <v>621.6220766236446</v>
+        <v>621.6220766236439</v>
       </c>
       <c r="M22" t="n">
-        <v>925.0434762803048</v>
+        <v>925.0434762803042</v>
       </c>
       <c r="N22" t="n">
         <v>1228.631895803114</v>
       </c>
       <c r="O22" t="n">
-        <v>1499.279732799951</v>
+        <v>1499.27973279995</v>
       </c>
       <c r="P22" t="n">
-        <v>1719.163533693123</v>
+        <v>1719.163533693122</v>
       </c>
       <c r="Q22" t="n">
-        <v>1813.157237851489</v>
+        <v>1813.157237851488</v>
       </c>
       <c r="R22" t="n">
         <v>1770.988940127556</v>
@@ -5947,13 +5947,13 @@
         <v>1130.583810109948</v>
       </c>
       <c r="W22" t="n">
-        <v>924.7161197159963</v>
+        <v>924.716119715996</v>
       </c>
       <c r="X22" t="n">
-        <v>780.276048460988</v>
+        <v>780.2760484609877</v>
       </c>
       <c r="Y22" t="n">
-        <v>643.0329489604669</v>
+        <v>643.0329489604666</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1855.190040748813</v>
+        <v>1855.190040748815</v>
       </c>
       <c r="C23" t="n">
-        <v>1569.777003451411</v>
+        <v>1569.777003451412</v>
       </c>
       <c r="D23" t="n">
-        <v>1295.060784487669</v>
+        <v>1295.06078448767</v>
       </c>
       <c r="E23" t="n">
-        <v>992.8220115324339</v>
+        <v>992.8220115324352</v>
       </c>
       <c r="F23" t="n">
-        <v>665.3855863858353</v>
+        <v>665.3855863858366</v>
       </c>
       <c r="G23" t="n">
-        <v>332.0832975047274</v>
+        <v>332.0832975047279</v>
       </c>
       <c r="H23" t="n">
-        <v>99.82673250881307</v>
+        <v>99.82673250881308</v>
       </c>
       <c r="I23" t="n">
         <v>72.78214196601606</v>
       </c>
       <c r="J23" t="n">
-        <v>281.0547462211582</v>
+        <v>113.6490972008051</v>
       </c>
       <c r="K23" t="n">
-        <v>713.9461951442534</v>
+        <v>546.5405461239003</v>
       </c>
       <c r="L23" t="n">
-        <v>979.3204042961067</v>
+        <v>1135.857294935594</v>
       </c>
       <c r="M23" t="n">
-        <v>1651.65538200317</v>
+        <v>1808.192272642657</v>
       </c>
       <c r="N23" t="n">
-        <v>2320.237445008299</v>
+        <v>2476.774335647786</v>
       </c>
       <c r="O23" t="n">
-        <v>2906.372890518161</v>
+        <v>3062.909781157648</v>
       </c>
       <c r="P23" t="n">
-        <v>3368.951549630494</v>
+        <v>3525.488440269981</v>
       </c>
       <c r="Q23" t="n">
         <v>3639.107098300803</v>
@@ -6017,22 +6017,22 @@
         <v>3571.819692134717</v>
       </c>
       <c r="T23" t="n">
-        <v>3441.60245800115</v>
+        <v>3441.602458001151</v>
       </c>
       <c r="U23" t="n">
-        <v>3271.479115448466</v>
+        <v>3271.479115448468</v>
       </c>
       <c r="V23" t="n">
-        <v>3023.965707747905</v>
+        <v>3023.965707747906</v>
       </c>
       <c r="W23" t="n">
-        <v>2754.7465321208</v>
+        <v>2754.746532120801</v>
       </c>
       <c r="X23" t="n">
-        <v>2464.830253502729</v>
+        <v>2464.83025350273</v>
       </c>
       <c r="Y23" t="n">
-        <v>2158.240401169926</v>
+        <v>2158.240401169927</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>72.78214196601606</v>
       </c>
       <c r="J24" t="n">
-        <v>203.1344985671975</v>
+        <v>78.3043735801927</v>
       </c>
       <c r="K24" t="n">
-        <v>552.5482813313132</v>
+        <v>427.7181563443085</v>
       </c>
       <c r="L24" t="n">
-        <v>1083.782628883512</v>
+        <v>924.0313416591478</v>
       </c>
       <c r="M24" t="n">
-        <v>1524.811673158918</v>
+        <v>1134.887977074956</v>
       </c>
       <c r="N24" t="n">
-        <v>1755.65770120643</v>
+        <v>1365.734005122468</v>
       </c>
       <c r="O24" t="n">
         <v>1944.616922238928</v>
@@ -6127,19 +6127,19 @@
         <v>459.5472604883383</v>
       </c>
       <c r="D25" t="n">
-        <v>392.9801007190117</v>
+        <v>392.9801007190116</v>
       </c>
       <c r="E25" t="n">
-        <v>328.6164867796276</v>
+        <v>328.6164867796275</v>
       </c>
       <c r="F25" t="n">
-        <v>265.2760189247263</v>
+        <v>265.2760189247261</v>
       </c>
       <c r="G25" t="n">
-        <v>180.3245209772921</v>
+        <v>180.324520977292</v>
       </c>
       <c r="H25" t="n">
-        <v>110.5606150751724</v>
+        <v>110.5606150751723</v>
       </c>
       <c r="I25" t="n">
         <v>72.78214196601606</v>
@@ -6151,22 +6151,22 @@
         <v>339.4758575143974</v>
       </c>
       <c r="L25" t="n">
-        <v>621.6220766236438</v>
+        <v>621.6220766236439</v>
       </c>
       <c r="M25" t="n">
-        <v>925.0434762803042</v>
+        <v>925.0434762803048</v>
       </c>
       <c r="N25" t="n">
         <v>1228.631895803114</v>
       </c>
       <c r="O25" t="n">
-        <v>1499.27973279995</v>
+        <v>1499.279732799951</v>
       </c>
       <c r="P25" t="n">
-        <v>1719.163533693122</v>
+        <v>1719.163533693123</v>
       </c>
       <c r="Q25" t="n">
-        <v>1813.157237851488</v>
+        <v>1813.157237851489</v>
       </c>
       <c r="R25" t="n">
         <v>1770.988940127556</v>
@@ -6184,10 +6184,10 @@
         <v>1130.583810109948</v>
       </c>
       <c r="W25" t="n">
-        <v>924.7161197159961</v>
+        <v>924.7161197159963</v>
       </c>
       <c r="X25" t="n">
-        <v>780.2760484609878</v>
+        <v>780.276048460988</v>
       </c>
       <c r="Y25" t="n">
         <v>643.0329489604669</v>
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1884.408067577711</v>
+        <v>1884.408067577712</v>
       </c>
       <c r="C26" t="n">
-        <v>1594.995914876353</v>
+        <v>1594.995914876354</v>
       </c>
       <c r="D26" t="n">
-        <v>1316.280580508656</v>
+        <v>1316.280580508657</v>
       </c>
       <c r="E26" t="n">
-        <v>1010.042692149466</v>
+        <v>1010.042692149467</v>
       </c>
       <c r="F26" t="n">
-        <v>678.6071515989122</v>
+        <v>678.6071515989131</v>
       </c>
       <c r="G26" t="n">
         <v>341.3057473138492</v>
       </c>
       <c r="H26" t="n">
-        <v>105.0500669139791</v>
+        <v>105.0500669139792</v>
       </c>
       <c r="I26" t="n">
-        <v>74.00636096722684</v>
+        <v>74.00636096722685</v>
       </c>
       <c r="J26" t="n">
-        <v>282.2789652223689</v>
+        <v>114.8733162020159</v>
       </c>
       <c r="K26" t="n">
-        <v>715.1704141454641</v>
+        <v>547.7647651251111</v>
       </c>
       <c r="L26" t="n">
-        <v>1304.487162957158</v>
+        <v>1137.081513936805</v>
       </c>
       <c r="M26" t="n">
-        <v>1976.822140664221</v>
+        <v>1809.416491643868</v>
       </c>
       <c r="N26" t="n">
-        <v>2645.40420366935</v>
+        <v>2477.998554648997</v>
       </c>
       <c r="O26" t="n">
-        <v>3231.539649179212</v>
+        <v>3064.134000158859</v>
       </c>
       <c r="P26" t="n">
-        <v>3430.162499691034</v>
+        <v>3526.712659271192</v>
       </c>
       <c r="Q26" t="n">
         <v>3700.318048361342</v>
@@ -6251,13 +6251,13 @@
         <v>3700.318048361342</v>
       </c>
       <c r="S26" t="n">
-        <v>3629.031526791301</v>
+        <v>3629.031526791302</v>
       </c>
       <c r="T26" t="n">
-        <v>3494.815177253779</v>
+        <v>3494.81517725378</v>
       </c>
       <c r="U26" t="n">
-        <v>3320.692719297141</v>
+        <v>3320.692719297142</v>
       </c>
       <c r="V26" t="n">
         <v>3069.180196192624</v>
@@ -6266,10 +6266,10 @@
         <v>2795.961905161564</v>
       </c>
       <c r="X26" t="n">
-        <v>2502.046511139537</v>
+        <v>2502.046511139538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2191.457543402779</v>
+        <v>2191.45754340278</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>115.5634811607028</v>
       </c>
       <c r="I27" t="n">
-        <v>74.00636096722684</v>
+        <v>74.00636096722685</v>
       </c>
       <c r="J27" t="n">
         <v>204.3587175684082</v>
@@ -6309,13 +6309,13 @@
         <v>553.772500332524</v>
       </c>
       <c r="L27" t="n">
-        <v>1085.006847884723</v>
+        <v>925.2555606603585</v>
       </c>
       <c r="M27" t="n">
-        <v>1295.863483300532</v>
+        <v>1136.112196076167</v>
       </c>
       <c r="N27" t="n">
-        <v>1756.881920207641</v>
+        <v>1366.958224123679</v>
       </c>
       <c r="O27" t="n">
         <v>1945.841141240139</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>478.8098800795171</v>
+        <v>574.1519906021339</v>
       </c>
       <c r="C28" t="n">
-        <v>389.424061390664</v>
+        <v>484.7661719132807</v>
       </c>
       <c r="D28" t="n">
-        <v>318.8577862173822</v>
+        <v>414.1998967399987</v>
       </c>
       <c r="E28" t="n">
-        <v>250.4950568740429</v>
+        <v>345.8371673966594</v>
       </c>
       <c r="F28" t="n">
-        <v>183.1554736151863</v>
+        <v>278.4975841378027</v>
       </c>
       <c r="G28" t="n">
-        <v>147.7693822733018</v>
+        <v>189.5469707864133</v>
       </c>
       <c r="H28" t="n">
-        <v>74.00636096722684</v>
+        <v>115.7839494803384</v>
       </c>
       <c r="I28" t="n">
-        <v>74.00636096722684</v>
+        <v>74.00636096722685</v>
       </c>
       <c r="J28" t="n">
         <v>141.7906676360153</v>
       </c>
       <c r="K28" t="n">
-        <v>332.8610105007751</v>
+        <v>332.861010500775</v>
       </c>
       <c r="L28" t="n">
-        <v>611.0876966026052</v>
+        <v>611.087696602605</v>
       </c>
       <c r="M28" t="n">
-        <v>910.5895632518489</v>
+        <v>910.5895632518486</v>
       </c>
       <c r="N28" t="n">
-        <v>1210.258449767242</v>
+        <v>1210.258449767241</v>
       </c>
       <c r="O28" t="n">
         <v>1476.986753756662</v>
@@ -6403,31 +6403,31 @@
         <v>1692.951021642417</v>
       </c>
       <c r="Q28" t="n">
-        <v>1783.025192793367</v>
+        <v>1783.025192793366</v>
       </c>
       <c r="R28" t="n">
         <v>1736.857779665479</v>
       </c>
       <c r="S28" t="n">
-        <v>1610.812839456671</v>
+        <v>1706.154949979288</v>
       </c>
       <c r="T28" t="n">
-        <v>1465.186349595922</v>
+        <v>1560.528460118539</v>
       </c>
       <c r="U28" t="n">
-        <v>1255.590311998883</v>
+        <v>1350.9324225215</v>
       </c>
       <c r="V28" t="n">
-        <v>1080.45618803205</v>
+        <v>1175.798298554667</v>
       </c>
       <c r="W28" t="n">
-        <v>870.5893822341428</v>
+        <v>965.93149275676</v>
       </c>
       <c r="X28" t="n">
-        <v>722.1501955751793</v>
+        <v>817.4923060977965</v>
       </c>
       <c r="Y28" t="n">
-        <v>580.907980670703</v>
+        <v>676.2500911933198</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1594.995914876354</v>
       </c>
       <c r="D29" t="n">
-        <v>1316.280580508657</v>
+        <v>1316.280580508658</v>
       </c>
       <c r="E29" t="n">
-        <v>1010.042692149466</v>
+        <v>1010.042692149467</v>
       </c>
       <c r="F29" t="n">
-        <v>678.6071515989125</v>
+        <v>678.6071515989134</v>
       </c>
       <c r="G29" t="n">
-        <v>341.3057473138483</v>
+        <v>341.3057473138495</v>
       </c>
       <c r="H29" t="n">
         <v>105.0500669139792</v>
@@ -6461,40 +6461,40 @@
         <v>74.00636096722687</v>
       </c>
       <c r="J29" t="n">
-        <v>114.8733162020159</v>
+        <v>282.278965222369</v>
       </c>
       <c r="K29" t="n">
-        <v>547.7647651251111</v>
+        <v>451.2146055449541</v>
       </c>
       <c r="L29" t="n">
-        <v>1137.081513936805</v>
+        <v>1040.531354356648</v>
       </c>
       <c r="M29" t="n">
-        <v>1809.416491643868</v>
+        <v>1712.866332063711</v>
       </c>
       <c r="N29" t="n">
-        <v>2477.998554648997</v>
+        <v>2381.44839506884</v>
       </c>
       <c r="O29" t="n">
-        <v>3064.134000158859</v>
+        <v>2967.583840578702</v>
       </c>
       <c r="P29" t="n">
-        <v>3526.712659271192</v>
+        <v>3430.162499691035</v>
       </c>
       <c r="Q29" t="n">
-        <v>3685.78760849483</v>
+        <v>3700.318048361343</v>
       </c>
       <c r="R29" t="n">
         <v>3700.318048361343</v>
       </c>
       <c r="S29" t="n">
-        <v>3629.031526791302</v>
+        <v>3629.031526791303</v>
       </c>
       <c r="T29" t="n">
-        <v>3494.81517725378</v>
+        <v>3494.815177253781</v>
       </c>
       <c r="U29" t="n">
-        <v>3320.692719297141</v>
+        <v>3320.692719297142</v>
       </c>
       <c r="V29" t="n">
         <v>3069.180196192624</v>
@@ -6549,10 +6549,10 @@
         <v>1085.006847884723</v>
       </c>
       <c r="M30" t="n">
-        <v>1295.863483300532</v>
+        <v>1526.035892160129</v>
       </c>
       <c r="N30" t="n">
-        <v>1526.709511348043</v>
+        <v>1756.881920207641</v>
       </c>
       <c r="O30" t="n">
         <v>1945.841141240139</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>505.7892612587943</v>
+        <v>478.8098800795165</v>
       </c>
       <c r="C31" t="n">
-        <v>416.4034425699411</v>
+        <v>389.4240613906633</v>
       </c>
       <c r="D31" t="n">
-        <v>345.8371673966592</v>
+        <v>389.4240613906633</v>
       </c>
       <c r="E31" t="n">
-        <v>345.8371673966592</v>
+        <v>321.0613320473239</v>
       </c>
       <c r="F31" t="n">
-        <v>278.4975841378026</v>
+        <v>253.7217487884673</v>
       </c>
       <c r="G31" t="n">
-        <v>189.5469707864133</v>
+        <v>164.7711354370779</v>
       </c>
       <c r="H31" t="n">
-        <v>115.7839494803384</v>
+        <v>91.00811413100254</v>
       </c>
       <c r="I31" t="n">
         <v>74.00636096722687</v>
@@ -6625,7 +6625,7 @@
         <v>332.8610105007751</v>
       </c>
       <c r="L31" t="n">
-        <v>611.0876966026049</v>
+        <v>611.0876966026051</v>
       </c>
       <c r="M31" t="n">
         <v>910.5895632518486</v>
@@ -6640,31 +6640,31 @@
         <v>1692.951021642417</v>
       </c>
       <c r="Q31" t="n">
-        <v>1783.025192793367</v>
+        <v>1783.025192793366</v>
       </c>
       <c r="R31" t="n">
         <v>1736.857779665479</v>
       </c>
       <c r="S31" t="n">
-        <v>1610.812839456671</v>
+        <v>1610.81283945667</v>
       </c>
       <c r="T31" t="n">
-        <v>1465.186349595922</v>
+        <v>1465.186349595921</v>
       </c>
       <c r="U31" t="n">
-        <v>1255.590311998883</v>
+        <v>1255.590311998882</v>
       </c>
       <c r="V31" t="n">
-        <v>1080.45618803205</v>
+        <v>1080.456188032049</v>
       </c>
       <c r="W31" t="n">
-        <v>870.5893822341427</v>
+        <v>870.5893822341422</v>
       </c>
       <c r="X31" t="n">
-        <v>722.1501955751792</v>
+        <v>722.1501955751786</v>
       </c>
       <c r="Y31" t="n">
-        <v>580.9079806707023</v>
+        <v>580.9079806707024</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>1855.190040748814</v>
       </c>
       <c r="C32" t="n">
-        <v>1569.777003451412</v>
+        <v>1569.777003451411</v>
       </c>
       <c r="D32" t="n">
         <v>1295.06078448767</v>
@@ -6689,13 +6689,13 @@
         <v>665.3855863858366</v>
       </c>
       <c r="G32" t="n">
-        <v>332.0832975047285</v>
+        <v>332.083297504728</v>
       </c>
       <c r="H32" t="n">
-        <v>99.82673250881309</v>
+        <v>99.82673250881304</v>
       </c>
       <c r="I32" t="n">
-        <v>72.78214196601607</v>
+        <v>72.78214196601606</v>
       </c>
       <c r="J32" t="n">
         <v>281.0547462211582</v>
@@ -6707,10 +6707,10 @@
         <v>1303.262943955947</v>
       </c>
       <c r="M32" t="n">
-        <v>1637.124942136658</v>
+        <v>1975.59792166301</v>
       </c>
       <c r="N32" t="n">
-        <v>2305.707005141787</v>
+        <v>2644.179984668139</v>
       </c>
       <c r="O32" t="n">
         <v>2891.842450651649</v>
@@ -6722,16 +6722,16 @@
         <v>3624.57665843429</v>
       </c>
       <c r="R32" t="n">
-        <v>3639.107098300804</v>
+        <v>3639.107098300803</v>
       </c>
       <c r="S32" t="n">
         <v>3571.819692134718</v>
       </c>
       <c r="T32" t="n">
-        <v>3441.602458001152</v>
+        <v>3441.602458001151</v>
       </c>
       <c r="U32" t="n">
-        <v>3271.479115448468</v>
+        <v>3271.479115448467</v>
       </c>
       <c r="V32" t="n">
         <v>3023.965707747906</v>
@@ -6765,7 +6765,7 @@
         <v>497.8853356969393</v>
       </c>
       <c r="F33" t="n">
-        <v>351.3507777238243</v>
+        <v>351.3507777238242</v>
       </c>
       <c r="G33" t="n">
         <v>214.0356582988545</v>
@@ -6774,22 +6774,22 @@
         <v>114.3392621594921</v>
       </c>
       <c r="I33" t="n">
-        <v>72.78214196601607</v>
+        <v>72.78214196601606</v>
       </c>
       <c r="J33" t="n">
         <v>203.1344985671975</v>
       </c>
       <c r="K33" t="n">
-        <v>392.7969941069485</v>
+        <v>552.5482813313132</v>
       </c>
       <c r="L33" t="n">
-        <v>924.0313416591478</v>
+        <v>1083.782628883512</v>
       </c>
       <c r="M33" t="n">
-        <v>1134.887977074956</v>
+        <v>1294.639264299321</v>
       </c>
       <c r="N33" t="n">
-        <v>1365.734005122468</v>
+        <v>1525.485292346832</v>
       </c>
       <c r="O33" t="n">
         <v>1944.616922238928</v>
@@ -6835,25 +6835,25 @@
         <v>544.9339637732359</v>
       </c>
       <c r="C34" t="n">
-        <v>459.547260488338</v>
+        <v>459.5472604883381</v>
       </c>
       <c r="D34" t="n">
-        <v>392.9801007190113</v>
+        <v>392.9801007190114</v>
       </c>
       <c r="E34" t="n">
-        <v>328.6164867796272</v>
+        <v>328.6164867796273</v>
       </c>
       <c r="F34" t="n">
-        <v>265.2760189247259</v>
+        <v>265.276018924726</v>
       </c>
       <c r="G34" t="n">
-        <v>180.3245209772917</v>
+        <v>180.324520977292</v>
       </c>
       <c r="H34" t="n">
         <v>110.5606150751723</v>
       </c>
       <c r="I34" t="n">
-        <v>72.78214196601607</v>
+        <v>72.78214196601606</v>
       </c>
       <c r="J34" t="n">
         <v>144.4859816422211</v>
@@ -6862,13 +6862,13 @@
         <v>339.4758575143974</v>
       </c>
       <c r="L34" t="n">
-        <v>621.6220766236439</v>
+        <v>621.622076623644</v>
       </c>
       <c r="M34" t="n">
-        <v>925.0434762803042</v>
+        <v>925.0434762803037</v>
       </c>
       <c r="N34" t="n">
-        <v>1228.631895803114</v>
+        <v>1228.631895803113</v>
       </c>
       <c r="O34" t="n">
         <v>1499.27973279995</v>
@@ -6895,13 +6895,13 @@
         <v>1130.583810109947</v>
       </c>
       <c r="W34" t="n">
-        <v>924.7161197159954</v>
+        <v>924.7161197159958</v>
       </c>
       <c r="X34" t="n">
-        <v>780.2760484609871</v>
+        <v>780.2760484609875</v>
       </c>
       <c r="Y34" t="n">
-        <v>643.0329489604666</v>
+        <v>643.0329489604665</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>992.8220115324345</v>
       </c>
       <c r="F35" t="n">
-        <v>665.3855863858361</v>
+        <v>665.3855863858362</v>
       </c>
       <c r="G35" t="n">
         <v>332.0832975047274</v>
       </c>
       <c r="H35" t="n">
-        <v>99.82673250881305</v>
+        <v>99.82673250881304</v>
       </c>
       <c r="I35" t="n">
         <v>72.78214196601606</v>
@@ -6944,19 +6944,19 @@
         <v>1303.262943955947</v>
       </c>
       <c r="M35" t="n">
-        <v>1975.59792166301</v>
+        <v>1637.124942136657</v>
       </c>
       <c r="N35" t="n">
-        <v>2644.179984668139</v>
+        <v>2305.707005141786</v>
       </c>
       <c r="O35" t="n">
-        <v>3116.564731271466</v>
+        <v>2891.842450651648</v>
       </c>
       <c r="P35" t="n">
-        <v>3579.1433903838</v>
+        <v>3354.421109763981</v>
       </c>
       <c r="Q35" t="n">
-        <v>3639.107098300803</v>
+        <v>3624.57665843429</v>
       </c>
       <c r="R35" t="n">
         <v>3639.107098300803</v>
@@ -6965,10 +6965,10 @@
         <v>3571.819692134717</v>
       </c>
       <c r="T35" t="n">
-        <v>3441.60245800115</v>
+        <v>3441.602458001151</v>
       </c>
       <c r="U35" t="n">
-        <v>3271.479115448467</v>
+        <v>3271.479115448466</v>
       </c>
       <c r="V35" t="n">
         <v>3023.965707747905</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>544.9339637732362</v>
+        <v>544.9339637732359</v>
       </c>
       <c r="C37" t="n">
-        <v>459.5472604883383</v>
+        <v>459.547260488338</v>
       </c>
       <c r="D37" t="n">
-        <v>392.9801007190116</v>
+        <v>392.9801007190113</v>
       </c>
       <c r="E37" t="n">
-        <v>328.6164867796276</v>
+        <v>328.6164867796273</v>
       </c>
       <c r="F37" t="n">
-        <v>265.2760189247263</v>
+        <v>265.276018924726</v>
       </c>
       <c r="G37" t="n">
-        <v>180.3245209772922</v>
+        <v>180.3245209772919</v>
       </c>
       <c r="H37" t="n">
         <v>110.5606150751723</v>
@@ -7096,16 +7096,16 @@
         <v>144.4859816422211</v>
       </c>
       <c r="K37" t="n">
-        <v>339.4758575143976</v>
+        <v>339.4758575143965</v>
       </c>
       <c r="L37" t="n">
-        <v>621.6220766236443</v>
+        <v>621.6220766236431</v>
       </c>
       <c r="M37" t="n">
-        <v>925.0434762803042</v>
+        <v>925.0434762803034</v>
       </c>
       <c r="N37" t="n">
-        <v>1228.631895803114</v>
+        <v>1228.631895803113</v>
       </c>
       <c r="O37" t="n">
         <v>1499.27973279995</v>
@@ -7114,10 +7114,10 @@
         <v>1719.163533693122</v>
       </c>
       <c r="Q37" t="n">
-        <v>1813.157237851489</v>
+        <v>1813.157237851488</v>
       </c>
       <c r="R37" t="n">
-        <v>1770.988940127556</v>
+        <v>1770.988940127555</v>
       </c>
       <c r="S37" t="n">
         <v>1648.943115322703</v>
@@ -7126,19 +7126,19 @@
         <v>1507.315740865909</v>
       </c>
       <c r="U37" t="n">
-        <v>1301.718818672826</v>
+        <v>1301.718818672825</v>
       </c>
       <c r="V37" t="n">
         <v>1130.583810109948</v>
       </c>
       <c r="W37" t="n">
-        <v>924.7161197159963</v>
+        <v>924.7161197159959</v>
       </c>
       <c r="X37" t="n">
-        <v>780.276048460988</v>
+        <v>780.2760484609876</v>
       </c>
       <c r="Y37" t="n">
-        <v>643.0329489604669</v>
+        <v>643.0329489604665</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1295.06078448767</v>
       </c>
       <c r="E38" t="n">
-        <v>992.8220115324351</v>
+        <v>992.8220115324349</v>
       </c>
       <c r="F38" t="n">
-        <v>665.3855863858369</v>
+        <v>665.3855863858364</v>
       </c>
       <c r="G38" t="n">
-        <v>332.0832975047272</v>
+        <v>332.0832975047274</v>
       </c>
       <c r="H38" t="n">
-        <v>99.82673250881291</v>
+        <v>99.82673250881301</v>
       </c>
       <c r="I38" t="n">
         <v>72.78214196601604</v>
@@ -7193,7 +7193,7 @@
         <v>3525.488440269981</v>
       </c>
       <c r="Q38" t="n">
-        <v>3624.576658434289</v>
+        <v>3639.107098300802</v>
       </c>
       <c r="R38" t="n">
         <v>3639.107098300802</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>544.9339637732351</v>
+        <v>544.9339637732357</v>
       </c>
       <c r="C40" t="n">
-        <v>459.5472604883373</v>
+        <v>459.5472604883379</v>
       </c>
       <c r="D40" t="n">
-        <v>392.9801007190107</v>
+        <v>392.9801007190113</v>
       </c>
       <c r="E40" t="n">
-        <v>328.6164867796268</v>
+        <v>328.6164867796272</v>
       </c>
       <c r="F40" t="n">
-        <v>265.2760189247256</v>
+        <v>265.2760189247259</v>
       </c>
       <c r="G40" t="n">
-        <v>180.3245209772917</v>
+        <v>180.3245209772919</v>
       </c>
       <c r="H40" t="n">
-        <v>110.5606150751721</v>
+        <v>110.5606150751722</v>
       </c>
       <c r="I40" t="n">
         <v>72.78214196601604</v>
       </c>
       <c r="J40" t="n">
-        <v>144.4859816422212</v>
+        <v>144.4859816422211</v>
       </c>
       <c r="K40" t="n">
-        <v>339.4758575143977</v>
+        <v>339.4758575143975</v>
       </c>
       <c r="L40" t="n">
-        <v>621.6220766236445</v>
+        <v>621.622076623644</v>
       </c>
       <c r="M40" t="n">
-        <v>925.043476280305</v>
+        <v>925.0434762803043</v>
       </c>
       <c r="N40" t="n">
-        <v>1228.631895803115</v>
+        <v>1228.631895803114</v>
       </c>
       <c r="O40" t="n">
-        <v>1499.279732799948</v>
+        <v>1499.279732799951</v>
       </c>
       <c r="P40" t="n">
-        <v>1719.16353369312</v>
+        <v>1719.163533693123</v>
       </c>
       <c r="Q40" t="n">
-        <v>1813.157237851486</v>
+        <v>1813.157237851488</v>
       </c>
       <c r="R40" t="n">
-        <v>1770.988940127554</v>
+        <v>1770.988940127555</v>
       </c>
       <c r="S40" t="n">
-        <v>1648.943115322701</v>
+        <v>1648.943115322702</v>
       </c>
       <c r="T40" t="n">
-        <v>1507.315740865907</v>
+        <v>1507.315740865909</v>
       </c>
       <c r="U40" t="n">
-        <v>1301.718818672824</v>
+        <v>1301.718818672825</v>
       </c>
       <c r="V40" t="n">
-        <v>1130.583810109946</v>
+        <v>1130.583810109947</v>
       </c>
       <c r="W40" t="n">
-        <v>924.7161197159946</v>
+        <v>924.7161197159957</v>
       </c>
       <c r="X40" t="n">
-        <v>780.2760484609864</v>
+        <v>780.2760484609873</v>
       </c>
       <c r="Y40" t="n">
-        <v>643.0329489604655</v>
+        <v>643.0329489604663</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1855.190040748814</v>
+        <v>1855.190040748815</v>
       </c>
       <c r="C41" t="n">
-        <v>1569.777003451411</v>
+        <v>1569.777003451413</v>
       </c>
       <c r="D41" t="n">
-        <v>1295.06078448767</v>
+        <v>1295.060784487671</v>
       </c>
       <c r="E41" t="n">
-        <v>992.822011532435</v>
+        <v>992.8220115324359</v>
       </c>
       <c r="F41" t="n">
-        <v>665.3855863858365</v>
+        <v>665.3855863858373</v>
       </c>
       <c r="G41" t="n">
-        <v>332.0832975047279</v>
+        <v>332.0832975047285</v>
       </c>
       <c r="H41" t="n">
-        <v>99.82673250881304</v>
+        <v>99.82673250881308</v>
       </c>
       <c r="I41" t="n">
-        <v>72.78214196601604</v>
+        <v>72.78214196601606</v>
       </c>
       <c r="J41" t="n">
-        <v>281.0547462211582</v>
+        <v>113.6490972008051</v>
       </c>
       <c r="K41" t="n">
-        <v>713.9461951442534</v>
+        <v>546.5405461239003</v>
       </c>
       <c r="L41" t="n">
-        <v>1303.262943955947</v>
+        <v>1135.857294935594</v>
       </c>
       <c r="M41" t="n">
-        <v>1637.124942136656</v>
+        <v>1808.192272642657</v>
       </c>
       <c r="N41" t="n">
-        <v>2305.707005141785</v>
+        <v>2476.774335647786</v>
       </c>
       <c r="O41" t="n">
-        <v>2891.842450651647</v>
+        <v>3062.909781157648</v>
       </c>
       <c r="P41" t="n">
-        <v>3354.42110976398</v>
+        <v>3525.488440269981</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.576658434289</v>
+        <v>3639.107098300803</v>
       </c>
       <c r="R41" t="n">
-        <v>3639.107098300802</v>
+        <v>3639.107098300803</v>
       </c>
       <c r="S41" t="n">
-        <v>3571.819692134716</v>
+        <v>3571.819692134717</v>
       </c>
       <c r="T41" t="n">
         <v>3441.602458001151</v>
       </c>
       <c r="U41" t="n">
-        <v>3271.479115448467</v>
+        <v>3271.479115448469</v>
       </c>
       <c r="V41" t="n">
-        <v>3023.965707747906</v>
+        <v>3023.965707747907</v>
       </c>
       <c r="W41" t="n">
-        <v>2754.746532120801</v>
+        <v>2754.746532120802</v>
       </c>
       <c r="X41" t="n">
-        <v>2464.83025350273</v>
+        <v>2464.830253502731</v>
       </c>
       <c r="Y41" t="n">
-        <v>2158.240401169927</v>
+        <v>2158.240401169928</v>
       </c>
     </row>
     <row r="42">
@@ -7485,10 +7485,10 @@
         <v>114.3392621594921</v>
       </c>
       <c r="I42" t="n">
-        <v>72.78214196601604</v>
+        <v>72.78214196601606</v>
       </c>
       <c r="J42" t="n">
-        <v>203.1344985671974</v>
+        <v>203.1344985671975</v>
       </c>
       <c r="K42" t="n">
         <v>552.5482813313132</v>
@@ -7497,16 +7497,16 @@
         <v>716.6506870330879</v>
       </c>
       <c r="M42" t="n">
-        <v>1388.555335561396</v>
+        <v>927.5073224488963</v>
       </c>
       <c r="N42" t="n">
-        <v>2093.950314209026</v>
+        <v>1632.902301096526</v>
       </c>
       <c r="O42" t="n">
-        <v>2282.909535241524</v>
+        <v>1944.616922238928</v>
       </c>
       <c r="P42" t="n">
-        <v>2415.232902816022</v>
+        <v>2392.218430766964</v>
       </c>
       <c r="Q42" t="n">
         <v>2638.730416165795</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>544.9339637732362</v>
+        <v>544.9339637732357</v>
       </c>
       <c r="C43" t="n">
-        <v>459.5472604883383</v>
+        <v>459.5472604883379</v>
       </c>
       <c r="D43" t="n">
-        <v>392.9801007190116</v>
+        <v>392.9801007190111</v>
       </c>
       <c r="E43" t="n">
-        <v>328.6164867796276</v>
+        <v>328.6164867796271</v>
       </c>
       <c r="F43" t="n">
-        <v>265.2760189247263</v>
+        <v>265.2760189247257</v>
       </c>
       <c r="G43" t="n">
-        <v>180.3245209772922</v>
+        <v>180.3245209772916</v>
       </c>
       <c r="H43" t="n">
-        <v>110.5606150751723</v>
+        <v>110.5606150751719</v>
       </c>
       <c r="I43" t="n">
-        <v>72.78214196601604</v>
+        <v>72.78214196601606</v>
       </c>
       <c r="J43" t="n">
-        <v>144.4859816422208</v>
+        <v>144.4859816422211</v>
       </c>
       <c r="K43" t="n">
-        <v>339.4758575143971</v>
+        <v>339.4758575143974</v>
       </c>
       <c r="L43" t="n">
-        <v>621.6220766236438</v>
+        <v>621.6220766236439</v>
       </c>
       <c r="M43" t="n">
-        <v>925.0434762803039</v>
+        <v>925.043476280304</v>
       </c>
       <c r="N43" t="n">
         <v>1228.631895803113</v>
@@ -7606,13 +7606,13 @@
         <v>1130.583810109948</v>
       </c>
       <c r="W43" t="n">
-        <v>924.7161197159963</v>
+        <v>924.7161197159959</v>
       </c>
       <c r="X43" t="n">
-        <v>780.276048460988</v>
+        <v>780.2760484609876</v>
       </c>
       <c r="Y43" t="n">
-        <v>643.0329489604669</v>
+        <v>643.0329489604665</v>
       </c>
     </row>
     <row r="44">
@@ -7625,73 +7625,73 @@
         <v>1855.190040748814</v>
       </c>
       <c r="C44" t="n">
-        <v>1569.777003451411</v>
+        <v>1569.777003451412</v>
       </c>
       <c r="D44" t="n">
-        <v>1295.060784487669</v>
+        <v>1295.06078448767</v>
       </c>
       <c r="E44" t="n">
-        <v>992.8220115324343</v>
+        <v>992.8220115324352</v>
       </c>
       <c r="F44" t="n">
-        <v>665.3855863858361</v>
+        <v>665.3855863858366</v>
       </c>
       <c r="G44" t="n">
-        <v>332.0832975047274</v>
+        <v>332.0832975047279</v>
       </c>
       <c r="H44" t="n">
-        <v>99.82673250881305</v>
+        <v>99.82673250881308</v>
       </c>
       <c r="I44" t="n">
         <v>72.78214196601606</v>
       </c>
       <c r="J44" t="n">
-        <v>281.0547462211582</v>
+        <v>167.3040473146236</v>
       </c>
       <c r="K44" t="n">
-        <v>713.9461951442534</v>
+        <v>600.1954962377188</v>
       </c>
       <c r="L44" t="n">
-        <v>1303.262943955947</v>
+        <v>1189.512245049413</v>
       </c>
       <c r="M44" t="n">
-        <v>1637.124942136657</v>
+        <v>1861.847222756476</v>
       </c>
       <c r="N44" t="n">
-        <v>2305.707005141786</v>
+        <v>2530.429285761605</v>
       </c>
       <c r="O44" t="n">
-        <v>2891.842450651648</v>
+        <v>3116.564731271467</v>
       </c>
       <c r="P44" t="n">
-        <v>3354.421109763981</v>
+        <v>3579.1433903838</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.57665843429</v>
+        <v>3639.107098300803</v>
       </c>
       <c r="R44" t="n">
         <v>3639.107098300803</v>
       </c>
       <c r="S44" t="n">
-        <v>3571.819692134717</v>
+        <v>3571.819692134718</v>
       </c>
       <c r="T44" t="n">
-        <v>3441.60245800115</v>
+        <v>3441.602458001151</v>
       </c>
       <c r="U44" t="n">
-        <v>3271.479115448467</v>
+        <v>3271.479115448468</v>
       </c>
       <c r="V44" t="n">
-        <v>3023.965707747905</v>
+        <v>3023.965707747906</v>
       </c>
       <c r="W44" t="n">
-        <v>2754.7465321208</v>
+        <v>2754.746532120801</v>
       </c>
       <c r="X44" t="n">
-        <v>2464.830253502729</v>
+        <v>2464.83025350273</v>
       </c>
       <c r="Y44" t="n">
-        <v>2158.240401169926</v>
+        <v>2158.240401169927</v>
       </c>
     </row>
     <row r="45">
@@ -7731,16 +7731,16 @@
         <v>552.5482813313132</v>
       </c>
       <c r="L45" t="n">
-        <v>764.7605320125676</v>
+        <v>1083.782628883512</v>
       </c>
       <c r="M45" t="n">
-        <v>975.617167428376</v>
+        <v>1294.639264299321</v>
       </c>
       <c r="N45" t="n">
-        <v>1681.012146076006</v>
+        <v>1525.485292346832</v>
       </c>
       <c r="O45" t="n">
-        <v>2259.895063192466</v>
+        <v>1944.616922238928</v>
       </c>
       <c r="P45" t="n">
         <v>2392.218430766964</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>544.933963773236</v>
+        <v>544.9339637732362</v>
       </c>
       <c r="C46" t="n">
-        <v>459.5472604883381</v>
+        <v>459.5472604883383</v>
       </c>
       <c r="D46" t="n">
-        <v>392.9801007190114</v>
+        <v>392.9801007190116</v>
       </c>
       <c r="E46" t="n">
-        <v>328.6164867796273</v>
+        <v>328.6164867796275</v>
       </c>
       <c r="F46" t="n">
-        <v>265.276018924726</v>
+        <v>265.2760189247261</v>
       </c>
       <c r="G46" t="n">
         <v>180.324520977292</v>
@@ -7807,25 +7807,25 @@
         <v>144.4859816422211</v>
       </c>
       <c r="K46" t="n">
-        <v>339.4758575143975</v>
+        <v>339.4758575143974</v>
       </c>
       <c r="L46" t="n">
-        <v>621.622076623644</v>
+        <v>621.6220766236439</v>
       </c>
       <c r="M46" t="n">
-        <v>925.0434762803038</v>
+        <v>925.0434762803048</v>
       </c>
       <c r="N46" t="n">
-        <v>1228.631895803113</v>
+        <v>1228.631895803114</v>
       </c>
       <c r="O46" t="n">
-        <v>1499.27973279995</v>
+        <v>1499.279732799951</v>
       </c>
       <c r="P46" t="n">
-        <v>1719.163533693122</v>
+        <v>1719.163533693123</v>
       </c>
       <c r="Q46" t="n">
-        <v>1813.157237851488</v>
+        <v>1813.157237851489</v>
       </c>
       <c r="R46" t="n">
         <v>1770.988940127556</v>
@@ -7843,13 +7843,13 @@
         <v>1130.583810109948</v>
       </c>
       <c r="W46" t="n">
-        <v>924.7161197159961</v>
+        <v>924.7161197159963</v>
       </c>
       <c r="X46" t="n">
-        <v>780.2760484609878</v>
+        <v>780.276048460988</v>
       </c>
       <c r="Y46" t="n">
-        <v>643.0329489604667</v>
+        <v>643.0329489604669</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.089851044981</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699877</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965914</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216872</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552714</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.8414389743594</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798746</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833338</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444449</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143307</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860234</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,16 +8140,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812387</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6855444652346</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518432</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>235.3925885601156</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>251.0691524851223</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>245.0306783175538</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
-        <v>244.7826565119678</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P8" t="n">
         <v>246.5357332704046</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>153.144176489494</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>153.8571172950092</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>157.4367714371534</v>
+        <v>156.8184790122994</v>
       </c>
       <c r="N9" t="n">
-        <v>146.0261571736144</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>149.2771449294653</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8702,16 +8702,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>222.6821099097274</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.19691930688828</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>51.03920788660568</v>
+        <v>51.03920788660565</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,19 +8769,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>123.9953536463674</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>8.235581975770259</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>39.51970732051053</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>110.1322378868923</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8945,10 +8945,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>51.03920788660565</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,16 +9012,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>85.25508757639921</v>
+        <v>157.0978320496693</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>166.0273412181472</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>122.2988469677422</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>102.8440938767137</v>
+        <v>209.4754087131918</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>54.19691930688731</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>122.2988469677422</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>51.03920788660568</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>209.4754087131918</v>
       </c>
       <c r="M21" t="n">
-        <v>439.2686234985691</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>90.44652802535921</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>54.19691930688782</v>
       </c>
       <c r="R23" t="n">
         <v>51.03920788660568</v>
@@ -9714,22 +9714,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>335.5664440536006</v>
       </c>
       <c r="M24" t="n">
-        <v>232.497382686462</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9890,10 +9890,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>55.17667928207746</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>114.7895769425733</v>
       </c>
       <c r="R26" t="n">
         <v>51.03920788660568</v>
@@ -9957,16 +9957,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>209.4754087131917</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>232.4973826864618</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>57.52338368176063</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>100.1123649561974</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>51.03920788660568</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>232.4973826864618</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>232.4973826864619</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10355,13 +10355,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>107.6216349813654</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>38.90828275127802</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>103.1003004223112</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>232.4973826864622</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10592,22 +10592,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>107.6216349813645</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>265.9004853975587</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>51.03920788660568</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>39.51970732051012</v>
+        <v>54.19691930688735</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>51.03920788660568</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>107.6216349813636</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11078,10 +11078,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>54.19691930688782</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>51.03920788660568</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,19 +11145,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>123.9953536463678</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.8303462721537</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>54.19691930688731</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>107.6216349813645</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>51.03920788660568</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,19 +11379,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>48.59580300957549</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>232.4973826864622</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741710982</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.3027375151346</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>282.8831993631141</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>337.9979960007727</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>390.1910001218012</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>311.0672128502247</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>289.1758754280039</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>369.5528930361433</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.374179606903025</v>
+        <v>163.146934562027</v>
       </c>
       <c r="C13" t="n">
-        <v>150.5617754787176</v>
+        <v>150.5617754787175</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>129.7489170266589</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>128.736002403021</v>
       </c>
       <c r="G13" t="n">
-        <v>150.1309221946284</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>135.0952060697672</v>
       </c>
       <c r="I13" t="n">
-        <v>103.4296276047334</v>
+        <v>103.4296276047333</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>107.775553973362</v>
+        <v>107.7755539733619</v>
       </c>
       <c r="S13" t="n">
-        <v>186.854305783473</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>269.5698921978214</v>
+        <v>269.5698921978213</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>235.4525977039177</v>
       </c>
       <c r="W13" t="n">
-        <v>269.8379527166808</v>
+        <v>150.6662272951361</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>201.8996077321845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>46.69615369398858</v>
       </c>
       <c r="E14" t="n">
-        <v>365.2453244523516</v>
+        <v>365.2453244523515</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>92.80308386403767</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.6434713310932</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>311.0672128502247</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>353.0460550585587</v>
       </c>
       <c r="Y14" t="n">
-        <v>314.1215510974541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23653,7 @@
         <v>163.146934562027</v>
       </c>
       <c r="C16" t="n">
-        <v>150.5617754787176</v>
+        <v>101.2253923722188</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>128.736002403021</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>150.1309221946284</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.0952060697672</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>107.775553973362</v>
+        <v>107.7755539733619</v>
       </c>
       <c r="S16" t="n">
         <v>186.854305783473</v>
       </c>
       <c r="T16" t="n">
-        <v>202.068694667305</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>269.5698921978213</v>
       </c>
       <c r="V16" t="n">
-        <v>235.4525977039177</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.8379527166808</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>201.8996077321845</v>
       </c>
     </row>
     <row r="17">
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>53.02887678940947</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>41.35981262798037</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>94.38868941739113</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26.70958736748523</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>69.86061242154916</v>
       </c>
       <c r="E31" t="n">
-        <v>67.67910204990595</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>24.5280769958425</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1211491.317522723</v>
+        <v>1211491.317522722</v>
       </c>
     </row>
     <row r="3">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286746.7185509636</v>
+        <v>286746.7185509633</v>
       </c>
       <c r="C2" t="n">
-        <v>286746.7185509633</v>
+        <v>286746.7185509634</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="E2" t="n">
         <v>246547.9907814265</v>
@@ -26326,13 +26326,13 @@
         <v>246547.9907814266</v>
       </c>
       <c r="G2" t="n">
+        <v>287364.619452499</v>
+      </c>
+      <c r="H2" t="n">
+        <v>287364.6194524991</v>
+      </c>
+      <c r="I2" t="n">
         <v>287364.6194524989</v>
-      </c>
-      <c r="H2" t="n">
-        <v>287364.619452499</v>
-      </c>
-      <c r="I2" t="n">
-        <v>287364.6194524993</v>
       </c>
       <c r="J2" t="n">
         <v>286571.7544613932</v>
@@ -26341,19 +26341,19 @@
         <v>286571.7544613933</v>
       </c>
       <c r="L2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="M2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524989</v>
       </c>
       <c r="N2" t="n">
-        <v>287364.6194524986</v>
+        <v>287364.6194524989</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.619452499</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524988</v>
+        <v>287364.619452499</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.523962964711245e-10</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>52823.15138133494</v>
+        <v>52823.15138133492</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14184.60655040569</v>
+        <v>14184.60655040561</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>55990.45078126751</v>
+        <v>55990.45078126753</v>
       </c>
       <c r="M3" t="n">
         <v>222906.5079315166</v>
       </c>
       <c r="N3" t="n">
-        <v>1.023181539494544e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>10180.73709599553</v>
+        <v>10180.7370959956</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26454,7 +26454,7 @@
         <v>169796.8856752705</v>
       </c>
       <c r="O4" t="n">
-        <v>169796.8856752704</v>
+        <v>169796.8856752705</v>
       </c>
       <c r="P4" t="n">
         <v>169796.8856752705</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33627.60000000003</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
         <v>33627.6</v>
@@ -26482,10 +26482,10 @@
         <v>70921.94436807351</v>
       </c>
       <c r="G5" t="n">
-        <v>76472.93125992033</v>
+        <v>76472.93125992031</v>
       </c>
       <c r="H5" t="n">
-        <v>76472.93125992033</v>
+        <v>76472.93125992031</v>
       </c>
       <c r="I5" t="n">
         <v>76472.93125992031</v>
@@ -26500,7 +26500,7 @@
         <v>76472.93125992033</v>
       </c>
       <c r="M5" t="n">
-        <v>76472.93125992031</v>
+        <v>76472.93125992033</v>
       </c>
       <c r="N5" t="n">
         <v>76472.93125992033</v>
@@ -26509,7 +26509,7 @@
         <v>76472.93125992031</v>
       </c>
       <c r="P5" t="n">
-        <v>76472.93125992031</v>
+        <v>76472.93125992033</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-156277.9097854232</v>
+        <v>-156282.3233632913</v>
       </c>
       <c r="C6" t="n">
-        <v>-156277.909785423</v>
+        <v>-156282.3233632913</v>
       </c>
       <c r="D6" t="n">
-        <v>-160069.9571324704</v>
+        <v>-160069.9571324705</v>
       </c>
       <c r="E6" t="n">
-        <v>-731359.1168393623</v>
+        <v>-731650.6641870129</v>
       </c>
       <c r="F6" t="n">
-        <v>72554.4229177165</v>
+        <v>72262.87557006595</v>
       </c>
       <c r="G6" t="n">
-        <v>-11728.3488640268</v>
+        <v>-11728.34886402673</v>
       </c>
       <c r="H6" t="n">
-        <v>41094.80251730824</v>
+        <v>41094.80251730837</v>
       </c>
       <c r="I6" t="n">
-        <v>41094.80251730849</v>
+        <v>41094.80251730808</v>
       </c>
       <c r="J6" t="n">
-        <v>28066.45280435059</v>
+        <v>28060.78948298566</v>
       </c>
       <c r="K6" t="n">
-        <v>42251.05935475633</v>
+        <v>42245.39603339135</v>
       </c>
       <c r="L6" t="n">
-        <v>-14895.64826395904</v>
+        <v>-14895.64826395918</v>
       </c>
       <c r="M6" t="n">
-        <v>-181811.7054142081</v>
+        <v>-181811.7054142084</v>
       </c>
       <c r="N6" t="n">
-        <v>41094.80251730766</v>
+        <v>41094.80251730807</v>
       </c>
       <c r="O6" t="n">
-        <v>30914.06542131283</v>
+        <v>30914.06542131268</v>
       </c>
       <c r="P6" t="n">
-        <v>41094.80251730802</v>
+        <v>41094.80251730818</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="F2" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="G2" t="n">
         <v>82.71398484657892</v>
@@ -26704,28 +26704,28 @@
         <v>82.71398484657892</v>
       </c>
       <c r="I2" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="J2" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="K2" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="L2" t="n">
+        <v>82.71398484657897</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82.71398484657897</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82.71398484657898</v>
+      </c>
+      <c r="O2" t="n">
         <v>82.71398484657892</v>
       </c>
-      <c r="M2" t="n">
-        <v>82.71398484657895</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82.71398484657908</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82.71398484657895</v>
-      </c>
       <c r="P2" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>651.5973107193154</v>
+        <v>651.5973107193155</v>
       </c>
       <c r="F3" t="n">
-        <v>651.5973107193154</v>
+        <v>651.5973107193155</v>
       </c>
       <c r="G3" t="n">
         <v>651.5973107193154</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -26796,40 +26796,40 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>909.7767745752008</v>
+        <v>909.7767745752006</v>
       </c>
       <c r="F4" t="n">
-        <v>909.7767745752008</v>
+        <v>909.7767745752006</v>
       </c>
       <c r="G4" t="n">
-        <v>909.7767745752008</v>
+        <v>909.7767745752006</v>
       </c>
       <c r="H4" t="n">
-        <v>909.7767745752008</v>
+        <v>909.7767745752006</v>
       </c>
       <c r="I4" t="n">
         <v>909.7767745752006</v>
       </c>
       <c r="J4" t="n">
-        <v>925.0795120903355</v>
+        <v>925.0795120903356</v>
       </c>
       <c r="K4" t="n">
         <v>925.0795120903358</v>
       </c>
       <c r="L4" t="n">
-        <v>909.7767745752009</v>
+        <v>909.7767745752008</v>
       </c>
       <c r="M4" t="n">
         <v>909.7767745752006</v>
       </c>
       <c r="N4" t="n">
-        <v>909.7767745752004</v>
+        <v>909.7767745752005</v>
       </c>
       <c r="O4" t="n">
-        <v>909.7767745752004</v>
+        <v>909.7767745752006</v>
       </c>
       <c r="P4" t="n">
-        <v>909.7767745752006</v>
+        <v>909.7767745752008</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>66.02893922666868</v>
+        <v>66.02893922666864</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>12.72592136999454</v>
+        <v>12.72592136999456</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>69.98806347658439</v>
+        <v>69.98806347658441</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>12.72592136999442</v>
+        <v>12.7259213699945</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>651.5973107193154</v>
+        <v>651.5973107193155</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>894.4740370600657</v>
+        <v>894.4740370600656</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.30273751513528</v>
+        <v>15.30273751513494</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66.02893922666868</v>
+        <v>66.02893922666864</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>12.72592136999454</v>
+        <v>12.72592136999456</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
-        <v>894.4740370600657</v>
+        <v>894.4740370600656</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,13 +27394,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157662</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461206</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498669</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933834</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.746591326257402</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27515,13 +27515,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494248</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609192</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.772985203477</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27552,7 +27552,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074391</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106057</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169393</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.293391377169</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27594,16 +27594,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.1376433238275</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.5229983365905</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890367</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520943</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27904,10 +27904,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>207.8277576413991</v>
       </c>
       <c r="U8" t="n">
-        <v>244.5042527585278</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27938,13 +27938,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>142.3423429402659</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>123.8648659598797</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T9" t="n">
         <v>184.8619911796866</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>213.2093222039017</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28029,7 +28029,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.1477374121232</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28059,16 +28059,16 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>213.2593875687478</v>
       </c>
       <c r="T10" t="n">
-        <v>217.1883789600571</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>271.0162918413558</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>236.834905808693</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="C11" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="D11" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="E11" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="F11" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="G11" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="H11" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="I11" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="T11" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="U11" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="V11" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="W11" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="X11" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="C13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="D13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="E13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="F13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="G13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="H13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="I13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="J13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="K13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="L13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="M13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="N13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="O13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="P13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="R13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="S13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="T13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="U13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="V13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="W13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="X13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="C14" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="D14" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="E14" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="F14" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="G14" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="H14" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="I14" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="T14" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="U14" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="V14" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="W14" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="X14" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="C16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="D16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="E16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="F16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="G16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="H16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="I16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="J16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="K16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="L16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="M16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="N16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="O16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="P16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="R16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="S16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="T16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="U16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="V16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="W16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="X16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.68504561991025</v>
+        <v>16.68504561991029</v>
       </c>
     </row>
     <row r="17">
@@ -28752,10 +28752,10 @@
         <v>82.71398484657892</v>
       </c>
       <c r="M19" t="n">
-        <v>82.71398484657962</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="N19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657959</v>
       </c>
       <c r="O19" t="n">
         <v>82.71398484657892</v>
@@ -28983,7 +28983,7 @@
         <v>82.71398484657892</v>
       </c>
       <c r="K22" t="n">
-        <v>82.71398484657959</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="L22" t="n">
         <v>82.71398484657892</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="C23" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="D23" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="E23" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="F23" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="G23" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="H23" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="I23" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="T23" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="U23" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="V23" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="W23" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="X23" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="C25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="D25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="E25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="F25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="G25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="H25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="I25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="J25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="K25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="L25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="M25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657962</v>
       </c>
       <c r="N25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="O25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="P25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="R25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="S25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="T25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="V25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="W25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="X25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657892</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="C26" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="D26" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="E26" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="F26" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="G26" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="H26" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="I26" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="T26" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="U26" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="V26" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="W26" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="X26" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="C28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="D28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="E28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="F28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="G28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="H28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="I28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="J28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="K28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="L28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="M28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="N28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="O28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="P28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="R28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="S28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="T28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="U28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="V28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="W28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="X28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.75486059666324</v>
+        <v>78.75486059666319</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="C29" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="D29" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="E29" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="F29" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="G29" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="H29" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="I29" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="T29" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="U29" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="V29" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="W29" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="X29" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="C31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="D31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="E31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="F31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="G31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="H31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="I31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="J31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="K31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="L31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="M31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="N31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="O31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="P31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="R31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="S31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="T31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="U31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="V31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="W31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="X31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.75486059666322</v>
+        <v>78.75486059666319</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="C32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="D32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="E32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="F32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="G32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="H32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="I32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="T32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="U32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="V32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="W32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="X32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="Y32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="C34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="D34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="E34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="F34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="G34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="H34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="I34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="J34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="K34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="L34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="M34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="N34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="O34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="P34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="R34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="S34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="T34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="U34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="V34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="W34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="X34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657897</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="C35" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="D35" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="E35" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="F35" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="G35" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="H35" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="I35" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="T35" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="U35" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="V35" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="W35" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="X35" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="C37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="D37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="E37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="F37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="G37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="H37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="I37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="J37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="K37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657797</v>
       </c>
       <c r="L37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="M37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="N37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="O37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="P37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="R37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="S37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="T37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="U37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="V37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="W37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="X37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657897</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="C38" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="D38" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="E38" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="F38" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="G38" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="H38" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="I38" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="T38" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="U38" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="V38" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="W38" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="X38" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="C40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="D40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="E40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="F40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="G40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="H40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="I40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="J40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="K40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="L40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="M40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="N40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="O40" t="n">
-        <v>82.71398484657584</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="P40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657783</v>
       </c>
       <c r="R40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="S40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="T40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="U40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="V40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="W40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="X40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.71398484657908</v>
+        <v>82.71398484657898</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="C41" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="D41" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="E41" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="F41" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="G41" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="H41" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="I41" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="T41" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="U41" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="V41" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="W41" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="X41" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="C43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="D43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="E43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="F43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="G43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="H43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="I43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="J43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="K43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="L43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="M43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="N43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="O43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="P43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="R43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="S43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="T43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="U43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="V43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="W43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="X43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="C44" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="D44" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="E44" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="F44" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="G44" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="H44" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="I44" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="T44" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="U44" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="V44" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="W44" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="X44" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="C46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="D46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="E46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="F46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="G46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="H46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="I46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="J46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="K46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="L46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="M46" t="n">
-        <v>82.71398484657843</v>
+        <v>82.71398484657962</v>
       </c>
       <c r="N46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="O46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="P46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="R46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="S46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="T46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="V46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="W46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="X46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.71398484657895</v>
+        <v>82.71398484657892</v>
       </c>
     </row>
   </sheetData>
@@ -31750,19 +31750,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.619486676258552</v>
+        <v>2.619486676258553</v>
       </c>
       <c r="H11" t="n">
         <v>26.82681792323291</v>
       </c>
       <c r="I11" t="n">
-        <v>100.9877600864579</v>
+        <v>100.987760086458</v>
       </c>
       <c r="J11" t="n">
-        <v>222.3256572890995</v>
+        <v>222.3256572890996</v>
       </c>
       <c r="K11" t="n">
-        <v>333.2085282951241</v>
+        <v>333.2085282951242</v>
       </c>
       <c r="L11" t="n">
         <v>413.3746436636719</v>
@@ -31771,28 +31771,28 @@
         <v>459.9589398425849</v>
       </c>
       <c r="N11" t="n">
-        <v>467.4015563615045</v>
+        <v>467.4015563615046</v>
       </c>
       <c r="O11" t="n">
-        <v>441.3540357244585</v>
+        <v>441.3540357244586</v>
       </c>
       <c r="P11" t="n">
-        <v>376.6854584043254</v>
+        <v>376.6854584043255</v>
       </c>
       <c r="Q11" t="n">
-        <v>282.8750918108159</v>
+        <v>282.875091810816</v>
       </c>
       <c r="R11" t="n">
-        <v>164.5463299275264</v>
+        <v>164.5463299275265</v>
       </c>
       <c r="S11" t="n">
-        <v>59.69155263524182</v>
+        <v>59.69155263524183</v>
       </c>
       <c r="T11" t="n">
         <v>11.46680292532182</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2095589341006841</v>
+        <v>0.2095589341006842</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31847,31 +31847,31 @@
         <v>304.3143855392426</v>
       </c>
       <c r="M12" t="n">
-        <v>355.1205343420268</v>
+        <v>355.1205343420269</v>
       </c>
       <c r="N12" t="n">
-        <v>364.519518191931</v>
+        <v>364.5195181919311</v>
       </c>
       <c r="O12" t="n">
-        <v>333.4641444772707</v>
+        <v>333.4641444772708</v>
       </c>
       <c r="P12" t="n">
         <v>267.6343746612977</v>
       </c>
       <c r="Q12" t="n">
-        <v>178.9064918035373</v>
+        <v>178.9064918035374</v>
       </c>
       <c r="R12" t="n">
-        <v>87.01897670323238</v>
+        <v>87.0189767032324</v>
       </c>
       <c r="S12" t="n">
         <v>26.03315670656886</v>
       </c>
       <c r="T12" t="n">
-        <v>5.649225741047648</v>
+        <v>5.649225741047649</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09220716661122391</v>
+        <v>0.09220716661122393</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.175011543920077</v>
       </c>
       <c r="H13" t="n">
-        <v>10.44692081776214</v>
+        <v>10.44692081776215</v>
       </c>
       <c r="I13" t="n">
-        <v>35.33580170261468</v>
+        <v>35.33580170261469</v>
       </c>
       <c r="J13" t="n">
-        <v>83.07331615514943</v>
+        <v>83.07331615514944</v>
       </c>
       <c r="K13" t="n">
         <v>136.5149775572598</v>
@@ -31932,13 +31932,13 @@
         <v>179.8088119891515</v>
       </c>
       <c r="O13" t="n">
-        <v>166.0825407715396</v>
+        <v>166.0825407715397</v>
       </c>
       <c r="P13" t="n">
         <v>142.11230527557</v>
       </c>
       <c r="Q13" t="n">
-        <v>98.39119391861662</v>
+        <v>98.39119391861664</v>
       </c>
       <c r="R13" t="n">
         <v>52.83279178389726</v>
@@ -31947,10 +31947,10 @@
         <v>20.47724663358897</v>
       </c>
       <c r="T13" t="n">
-        <v>5.02050386947669</v>
+        <v>5.020503869476691</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06409153875927699</v>
+        <v>0.06409153875927701</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,19 +31987,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.619486676258552</v>
+        <v>2.619486676258553</v>
       </c>
       <c r="H14" t="n">
         <v>26.82681792323291</v>
       </c>
       <c r="I14" t="n">
-        <v>100.9877600864579</v>
+        <v>100.987760086458</v>
       </c>
       <c r="J14" t="n">
-        <v>222.3256572890995</v>
+        <v>222.3256572890996</v>
       </c>
       <c r="K14" t="n">
-        <v>333.2085282951241</v>
+        <v>333.2085282951242</v>
       </c>
       <c r="L14" t="n">
         <v>413.3746436636719</v>
@@ -32008,28 +32008,28 @@
         <v>459.9589398425849</v>
       </c>
       <c r="N14" t="n">
-        <v>467.4015563615045</v>
+        <v>467.4015563615046</v>
       </c>
       <c r="O14" t="n">
-        <v>441.3540357244585</v>
+        <v>441.3540357244586</v>
       </c>
       <c r="P14" t="n">
-        <v>376.6854584043254</v>
+        <v>376.6854584043255</v>
       </c>
       <c r="Q14" t="n">
-        <v>282.8750918108159</v>
+        <v>282.875091810816</v>
       </c>
       <c r="R14" t="n">
-        <v>164.5463299275264</v>
+        <v>164.5463299275265</v>
       </c>
       <c r="S14" t="n">
-        <v>59.69155263524182</v>
+        <v>59.69155263524183</v>
       </c>
       <c r="T14" t="n">
         <v>11.46680292532182</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2095589341006841</v>
+        <v>0.2095589341006842</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,31 +32084,31 @@
         <v>304.3143855392426</v>
       </c>
       <c r="M15" t="n">
-        <v>355.1205343420268</v>
+        <v>355.1205343420269</v>
       </c>
       <c r="N15" t="n">
-        <v>364.519518191931</v>
+        <v>364.5195181919311</v>
       </c>
       <c r="O15" t="n">
-        <v>333.4641444772707</v>
+        <v>333.4641444772708</v>
       </c>
       <c r="P15" t="n">
         <v>267.6343746612977</v>
       </c>
       <c r="Q15" t="n">
-        <v>178.9064918035373</v>
+        <v>178.9064918035374</v>
       </c>
       <c r="R15" t="n">
-        <v>87.01897670323238</v>
+        <v>87.0189767032324</v>
       </c>
       <c r="S15" t="n">
         <v>26.03315670656886</v>
       </c>
       <c r="T15" t="n">
-        <v>5.649225741047648</v>
+        <v>5.649225741047649</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09220716661122391</v>
+        <v>0.09220716661122393</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.175011543920077</v>
       </c>
       <c r="H16" t="n">
-        <v>10.44692081776214</v>
+        <v>10.44692081776215</v>
       </c>
       <c r="I16" t="n">
-        <v>35.33580170261468</v>
+        <v>35.33580170261469</v>
       </c>
       <c r="J16" t="n">
-        <v>83.07331615514943</v>
+        <v>83.07331615514944</v>
       </c>
       <c r="K16" t="n">
         <v>136.5149775572598</v>
@@ -32169,13 +32169,13 @@
         <v>179.8088119891515</v>
       </c>
       <c r="O16" t="n">
-        <v>166.0825407715396</v>
+        <v>166.0825407715397</v>
       </c>
       <c r="P16" t="n">
         <v>142.11230527557</v>
       </c>
       <c r="Q16" t="n">
-        <v>98.39119391861662</v>
+        <v>98.39119391861664</v>
       </c>
       <c r="R16" t="n">
         <v>52.83279178389726</v>
@@ -32184,10 +32184,10 @@
         <v>20.47724663358897</v>
       </c>
       <c r="T16" t="n">
-        <v>5.02050386947669</v>
+        <v>5.020503869476691</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06409153875927699</v>
+        <v>0.06409153875927701</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.837363033884704e-12</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.837363033884704e-12</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.382615682998239e-12</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="N8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="P8" t="n">
         <v>15.30273751513505</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="N9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N9" t="n">
-        <v>14.68444509028111</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>41.27975276241321</v>
+        <v>41.27975276241327</v>
       </c>
       <c r="K11" t="n">
         <v>437.2640898213083</v>
@@ -35419,16 +35419,16 @@
         <v>679.1262401081447</v>
       </c>
       <c r="N11" t="n">
-        <v>675.3354171768977</v>
+        <v>675.3354171768979</v>
       </c>
       <c r="O11" t="n">
-        <v>592.0560055655171</v>
+        <v>433.9379342124993</v>
       </c>
       <c r="P11" t="n">
-        <v>467.2511708205385</v>
+        <v>467.2511708205386</v>
       </c>
       <c r="Q11" t="n">
-        <v>114.7663212432547</v>
+        <v>272.8843925962712</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>131.6690470719004</v>
       </c>
       <c r="K12" t="n">
-        <v>88.47797790066966</v>
+        <v>352.9432149132483</v>
       </c>
       <c r="L12" t="n">
-        <v>165.7600057593684</v>
+        <v>289.7553594057359</v>
       </c>
       <c r="M12" t="n">
-        <v>678.6915641700084</v>
+        <v>212.9865004200086</v>
       </c>
       <c r="N12" t="n">
-        <v>241.413388084368</v>
+        <v>712.5201804521513</v>
       </c>
       <c r="O12" t="n">
-        <v>584.7302193095559</v>
+        <v>190.8679000328264</v>
       </c>
       <c r="P12" t="n">
         <v>452.1227358869046</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.399181658386901</v>
+        <v>6.399181658386954</v>
       </c>
       <c r="K13" t="n">
         <v>130.9305313512872</v>
       </c>
       <c r="L13" t="n">
-        <v>218.9672416917622</v>
+        <v>218.9672416917623</v>
       </c>
       <c r="M13" t="n">
-        <v>240.4573230527861</v>
+        <v>240.4573230527862</v>
       </c>
       <c r="N13" t="n">
         <v>240.6260299882904</v>
@@ -35583,10 +35583,10 @@
         <v>207.3527143054896</v>
       </c>
       <c r="P13" t="n">
-        <v>156.0759101603737</v>
+        <v>156.0759101603738</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.91419628683249</v>
+        <v>28.91419628683254</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>80.79946008292374</v>
+        <v>210.376367934487</v>
       </c>
       <c r="K14" t="n">
         <v>437.2640898213083</v>
@@ -35656,19 +35656,19 @@
         <v>679.1262401081447</v>
       </c>
       <c r="N14" t="n">
-        <v>675.3354171768977</v>
+        <v>348.120730651806</v>
       </c>
       <c r="O14" t="n">
-        <v>592.0560055655171</v>
+        <v>592.0560055655172</v>
       </c>
       <c r="P14" t="n">
-        <v>467.2511708205385</v>
+        <v>467.2511708205386</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.56940193636646</v>
+        <v>272.8843925962712</v>
       </c>
       <c r="R14" t="n">
-        <v>14.67721198637676</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>352.9432149132483</v>
       </c>
       <c r="L15" t="n">
-        <v>536.6003510628275</v>
+        <v>536.6003510628276</v>
       </c>
       <c r="M15" t="n">
-        <v>678.6915641700084</v>
+        <v>212.9865004200086</v>
       </c>
       <c r="N15" t="n">
-        <v>233.1778061085977</v>
+        <v>233.1778061085978</v>
       </c>
       <c r="O15" t="n">
-        <v>190.8679000328263</v>
+        <v>584.7302193095559</v>
       </c>
       <c r="P15" t="n">
-        <v>218.9150548233666</v>
+        <v>290.7577992966368</v>
       </c>
       <c r="Q15" t="n">
         <v>249.0020054533649</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.399181658386908</v>
+        <v>6.399181658386951</v>
       </c>
       <c r="K16" t="n">
         <v>130.9305313512872</v>
       </c>
       <c r="L16" t="n">
-        <v>218.9672416917622</v>
+        <v>218.9672416917623</v>
       </c>
       <c r="M16" t="n">
-        <v>240.4573230527861</v>
+        <v>240.4573230527862</v>
       </c>
       <c r="N16" t="n">
         <v>240.6260299882904</v>
@@ -35820,10 +35820,10 @@
         <v>207.3527143054896</v>
       </c>
       <c r="P16" t="n">
-        <v>156.0759101603737</v>
+        <v>156.0759101603738</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.91419628683249</v>
+        <v>28.91419628683254</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>210.376367934487</v>
+        <v>207.3070939805604</v>
       </c>
       <c r="K17" t="n">
-        <v>437.2640898213083</v>
+        <v>113.1186772501435</v>
       </c>
       <c r="L17" t="n">
         <v>595.2694432441351</v>
       </c>
       <c r="M17" t="n">
-        <v>351.9115535830543</v>
+        <v>679.1262401081447</v>
       </c>
       <c r="N17" t="n">
         <v>675.3354171768977</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>5.578011731491557</v>
+        <v>131.6690470719004</v>
       </c>
       <c r="K18" t="n">
         <v>352.9432149132483</v>
       </c>
       <c r="L18" t="n">
-        <v>268.6040996360821</v>
+        <v>375.2354144725601</v>
       </c>
       <c r="M18" t="n">
-        <v>678.6915641700084</v>
+        <v>212.9865004200085</v>
       </c>
       <c r="N18" t="n">
-        <v>712.5201804521512</v>
+        <v>233.1778061085977</v>
       </c>
       <c r="O18" t="n">
-        <v>190.8679000328263</v>
+        <v>584.7302193095559</v>
       </c>
       <c r="P18" t="n">
-        <v>133.6599672469674</v>
+        <v>452.1227358869046</v>
       </c>
       <c r="Q18" t="n">
         <v>249.0020054533649</v>
@@ -36048,10 +36048,10 @@
         <v>284.9961809184309</v>
       </c>
       <c r="M19" t="n">
-        <v>306.4862622794555</v>
+        <v>306.4862622794548</v>
       </c>
       <c r="N19" t="n">
-        <v>306.654969214959</v>
+        <v>306.6549692149597</v>
       </c>
       <c r="O19" t="n">
         <v>273.3816535321582</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>210.376367934487</v>
+        <v>95.47667206930052</v>
       </c>
       <c r="K20" t="n">
         <v>437.2640898213083</v>
@@ -36127,7 +36127,7 @@
         <v>595.2694432441351</v>
       </c>
       <c r="M20" t="n">
-        <v>351.9115535830543</v>
+        <v>679.1262401081447</v>
       </c>
       <c r="N20" t="n">
         <v>675.3354171768977</v>
@@ -36139,7 +36139,7 @@
         <v>467.2511708205385</v>
       </c>
       <c r="Q20" t="n">
-        <v>272.8843925962711</v>
+        <v>60.56940193636646</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>5.578011731491557</v>
+        <v>131.6690470719004</v>
       </c>
       <c r="K21" t="n">
-        <v>88.47797790066966</v>
+        <v>352.9432149132483</v>
       </c>
       <c r="L21" t="n">
-        <v>536.6003510628275</v>
+        <v>375.2354144725601</v>
       </c>
       <c r="M21" t="n">
-        <v>652.2551239185776</v>
+        <v>212.9865004200085</v>
       </c>
       <c r="N21" t="n">
         <v>233.1778061085977</v>
@@ -36218,7 +36218,7 @@
         <v>452.1227358869046</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.92471771751582</v>
+        <v>249.0020054533649</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>72.42812088505558</v>
       </c>
       <c r="K22" t="n">
-        <v>196.9594705779566</v>
+        <v>196.9594705779559</v>
       </c>
       <c r="L22" t="n">
         <v>284.9961809184309</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>210.376367934487</v>
+        <v>41.27975276241321</v>
       </c>
       <c r="K23" t="n">
         <v>437.2640898213083</v>
       </c>
       <c r="L23" t="n">
-        <v>268.0547567190438</v>
+        <v>595.2694432441351</v>
       </c>
       <c r="M23" t="n">
         <v>679.1262401081447</v>
@@ -36376,7 +36376,7 @@
         <v>467.2511708205385</v>
       </c>
       <c r="Q23" t="n">
-        <v>272.8843925962711</v>
+        <v>114.7663212432543</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>131.6690470719004</v>
+        <v>5.578011731491557</v>
       </c>
       <c r="K24" t="n">
         <v>352.9432149132483</v>
       </c>
       <c r="L24" t="n">
-        <v>536.6003510628275</v>
+        <v>501.326449812969</v>
       </c>
       <c r="M24" t="n">
-        <v>445.4838831064705</v>
+        <v>212.9865004200085</v>
       </c>
       <c r="N24" t="n">
         <v>233.1778061085977</v>
       </c>
       <c r="O24" t="n">
-        <v>190.8679000328263</v>
+        <v>584.7302193095559</v>
       </c>
       <c r="P24" t="n">
         <v>452.1227358869046</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>72.42812088505559</v>
+        <v>72.42812088505558</v>
       </c>
       <c r="K25" t="n">
         <v>196.9594705779559</v>
@@ -36522,7 +36522,7 @@
         <v>284.9961809184309</v>
       </c>
       <c r="M25" t="n">
-        <v>306.4862622794548</v>
+        <v>306.4862622794555</v>
       </c>
       <c r="N25" t="n">
         <v>306.654969214959</v>
@@ -36531,10 +36531,10 @@
         <v>273.3816535321582</v>
       </c>
       <c r="P25" t="n">
-        <v>222.1048493870424</v>
+        <v>222.1048493870423</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.94313551350118</v>
+        <v>94.94313551350116</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>210.376367934487</v>
+        <v>41.27975276241321</v>
       </c>
       <c r="K26" t="n">
         <v>437.2640898213083</v>
@@ -36610,10 +36610,10 @@
         <v>592.0560055655171</v>
       </c>
       <c r="P26" t="n">
-        <v>200.6291419311333</v>
+        <v>467.2511708205385</v>
       </c>
       <c r="Q26" t="n">
-        <v>272.8843925962711</v>
+        <v>175.3589788789397</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>352.9432149132483</v>
       </c>
       <c r="L27" t="n">
-        <v>536.6003510628275</v>
+        <v>375.23541447256</v>
       </c>
       <c r="M27" t="n">
         <v>212.9865004200085</v>
       </c>
       <c r="N27" t="n">
-        <v>465.6751887950595</v>
+        <v>233.1778061085977</v>
       </c>
       <c r="O27" t="n">
-        <v>190.8679000328263</v>
+        <v>584.7302193095559</v>
       </c>
       <c r="P27" t="n">
         <v>452.1227358869046</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>68.46899663513989</v>
+        <v>68.46899663513985</v>
       </c>
       <c r="K28" t="n">
         <v>193.0003463280402</v>
@@ -36768,10 +36768,10 @@
         <v>269.4225292822425</v>
       </c>
       <c r="P28" t="n">
-        <v>218.1457251371267</v>
+        <v>218.1457251371266</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.98401126358547</v>
+        <v>90.98401126358543</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>41.27975276241321</v>
+        <v>210.376367934487</v>
       </c>
       <c r="K29" t="n">
-        <v>437.2640898213083</v>
+        <v>170.6420609319042</v>
       </c>
       <c r="L29" t="n">
         <v>595.2694432441351</v>
@@ -36850,10 +36850,10 @@
         <v>467.2511708205385</v>
       </c>
       <c r="Q29" t="n">
-        <v>160.6817668925638</v>
+        <v>272.8843925962711</v>
       </c>
       <c r="R29" t="n">
-        <v>14.67721198637676</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>536.6003510628275</v>
       </c>
       <c r="M30" t="n">
-        <v>212.9865004200085</v>
+        <v>445.4838831064703</v>
       </c>
       <c r="N30" t="n">
         <v>233.1778061085977</v>
       </c>
       <c r="O30" t="n">
-        <v>423.3652827192882</v>
+        <v>190.8679000328263</v>
       </c>
       <c r="P30" t="n">
         <v>452.1227358869046</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.46899663513987</v>
+        <v>68.46899663513985</v>
       </c>
       <c r="K31" t="n">
         <v>193.0003463280402</v>
@@ -37008,7 +37008,7 @@
         <v>218.1457251371266</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.98401126358546</v>
+        <v>90.98401126358543</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,13 +37075,13 @@
         <v>595.2694432441351</v>
       </c>
       <c r="M32" t="n">
-        <v>337.2343415966776</v>
+        <v>679.1262401081447</v>
       </c>
       <c r="N32" t="n">
         <v>675.3354171768977</v>
       </c>
       <c r="O32" t="n">
-        <v>592.0560055655171</v>
+        <v>250.1641070540498</v>
       </c>
       <c r="P32" t="n">
         <v>467.2511708205385</v>
@@ -37148,7 +37148,7 @@
         <v>131.6690470719004</v>
       </c>
       <c r="K33" t="n">
-        <v>191.5782783229809</v>
+        <v>352.9432149132483</v>
       </c>
       <c r="L33" t="n">
         <v>536.6003510628275</v>
@@ -37160,7 +37160,7 @@
         <v>233.1778061085977</v>
       </c>
       <c r="O33" t="n">
-        <v>584.7302193095559</v>
+        <v>423.3652827192885</v>
       </c>
       <c r="P33" t="n">
         <v>452.1227358869046</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.42812088505558</v>
+        <v>72.42812088505562</v>
       </c>
       <c r="K34" t="n">
         <v>196.9594705779559</v>
@@ -37233,19 +37233,19 @@
         <v>284.9961809184309</v>
       </c>
       <c r="M34" t="n">
-        <v>306.4862622794548</v>
+        <v>306.4862622794549</v>
       </c>
       <c r="N34" t="n">
-        <v>306.654969214959</v>
+        <v>306.6549692149591</v>
       </c>
       <c r="O34" t="n">
-        <v>273.3816535321582</v>
+        <v>273.3816535321583</v>
       </c>
       <c r="P34" t="n">
-        <v>222.1048493870423</v>
+        <v>222.1048493870424</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.94313551350116</v>
+        <v>94.9431355135012</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,22 +37312,22 @@
         <v>595.2694432441351</v>
       </c>
       <c r="M35" t="n">
-        <v>679.1262401081447</v>
+        <v>337.2343415966766</v>
       </c>
       <c r="N35" t="n">
         <v>675.3354171768977</v>
       </c>
       <c r="O35" t="n">
-        <v>477.1563097003304</v>
+        <v>592.0560055655171</v>
       </c>
       <c r="P35" t="n">
         <v>467.2511708205385</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.56940193636646</v>
+        <v>272.8843925962711</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>14.67721198637676</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>72.42812088505561</v>
+        <v>72.42812088505562</v>
       </c>
       <c r="K37" t="n">
-        <v>196.9594705779559</v>
+        <v>196.9594705779549</v>
       </c>
       <c r="L37" t="n">
         <v>284.9961809184309</v>
       </c>
       <c r="M37" t="n">
-        <v>306.4862622794548</v>
+        <v>306.4862622794549</v>
       </c>
       <c r="N37" t="n">
         <v>306.6549692149591</v>
@@ -37482,7 +37482,7 @@
         <v>222.1048493870424</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.94313551350119</v>
+        <v>94.9431355135012</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,10 +37561,10 @@
         <v>467.2511708205385</v>
       </c>
       <c r="Q38" t="n">
-        <v>100.0891092568766</v>
+        <v>114.7663212432538</v>
       </c>
       <c r="R38" t="n">
-        <v>14.67721198637676</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>72.42812088505573</v>
+        <v>72.42812088505563</v>
       </c>
       <c r="K40" t="n">
-        <v>196.959470577956</v>
+        <v>196.9594705779559</v>
       </c>
       <c r="L40" t="n">
-        <v>284.996180918431</v>
+        <v>284.9961809184309</v>
       </c>
       <c r="M40" t="n">
-        <v>306.486262279455</v>
+        <v>306.4862622794549</v>
       </c>
       <c r="N40" t="n">
-        <v>306.6549692149592</v>
+        <v>306.6549692149591</v>
       </c>
       <c r="O40" t="n">
-        <v>273.3816535321552</v>
+        <v>273.3816535321583</v>
       </c>
       <c r="P40" t="n">
-        <v>222.1048493870425</v>
+        <v>222.1048493870424</v>
       </c>
       <c r="Q40" t="n">
-        <v>94.94313551350132</v>
+        <v>94.94313551350007</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>210.376367934487</v>
+        <v>41.27975276241321</v>
       </c>
       <c r="K41" t="n">
         <v>437.2640898213083</v>
@@ -37786,7 +37786,7 @@
         <v>595.2694432441351</v>
       </c>
       <c r="M41" t="n">
-        <v>337.2343415966757</v>
+        <v>679.1262401081447</v>
       </c>
       <c r="N41" t="n">
         <v>675.3354171768977</v>
@@ -37798,10 +37798,10 @@
         <v>467.2511708205385</v>
       </c>
       <c r="Q41" t="n">
-        <v>272.8843925962711</v>
+        <v>114.7663212432543</v>
       </c>
       <c r="R41" t="n">
-        <v>14.67721198637676</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>165.7600057593684</v>
       </c>
       <c r="M42" t="n">
-        <v>678.6915641700084</v>
+        <v>212.9865004200085</v>
       </c>
       <c r="N42" t="n">
         <v>712.5201804521512</v>
       </c>
       <c r="O42" t="n">
-        <v>190.8679000328263</v>
+        <v>314.8632536791941</v>
       </c>
       <c r="P42" t="n">
-        <v>133.6599672469674</v>
+        <v>452.1227358869046</v>
       </c>
       <c r="Q42" t="n">
-        <v>225.7550639896695</v>
+        <v>249.0020054533649</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>72.42812088505561</v>
+        <v>72.42812088505558</v>
       </c>
       <c r="K43" t="n">
         <v>196.9594705779559</v>
@@ -37947,16 +37947,16 @@
         <v>306.4862622794548</v>
       </c>
       <c r="N43" t="n">
-        <v>306.6549692149591</v>
+        <v>306.654969214959</v>
       </c>
       <c r="O43" t="n">
-        <v>273.3816535321583</v>
+        <v>273.3816535321582</v>
       </c>
       <c r="P43" t="n">
-        <v>222.1048493870424</v>
+        <v>222.1048493870423</v>
       </c>
       <c r="Q43" t="n">
-        <v>94.94313551350119</v>
+        <v>94.94313551350116</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>210.376367934487</v>
+        <v>95.47667206930052</v>
       </c>
       <c r="K44" t="n">
         <v>437.2640898213083</v>
@@ -38023,7 +38023,7 @@
         <v>595.2694432441351</v>
       </c>
       <c r="M44" t="n">
-        <v>337.2343415966766</v>
+        <v>679.1262401081447</v>
       </c>
       <c r="N44" t="n">
         <v>675.3354171768977</v>
@@ -38035,10 +38035,10 @@
         <v>467.2511708205385</v>
       </c>
       <c r="Q44" t="n">
-        <v>272.8843925962711</v>
+        <v>60.56940193636646</v>
       </c>
       <c r="R44" t="n">
-        <v>14.67721198637676</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>352.9432149132483</v>
       </c>
       <c r="L45" t="n">
-        <v>214.3558087689439</v>
+        <v>536.6003510628275</v>
       </c>
       <c r="M45" t="n">
         <v>212.9865004200085</v>
       </c>
       <c r="N45" t="n">
-        <v>712.5201804521512</v>
+        <v>233.1778061085977</v>
       </c>
       <c r="O45" t="n">
-        <v>584.7302193095559</v>
+        <v>423.3652827192885</v>
       </c>
       <c r="P45" t="n">
-        <v>133.6599672469674</v>
+        <v>452.1227358869046</v>
       </c>
       <c r="Q45" t="n">
         <v>249.0020054533649</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>72.42812088505561</v>
+        <v>72.42812088505558</v>
       </c>
       <c r="K46" t="n">
         <v>196.9594705779559</v>
@@ -38181,19 +38181,19 @@
         <v>284.9961809184309</v>
       </c>
       <c r="M46" t="n">
-        <v>306.4862622794543</v>
+        <v>306.4862622794555</v>
       </c>
       <c r="N46" t="n">
-        <v>306.6549692149591</v>
+        <v>306.654969214959</v>
       </c>
       <c r="O46" t="n">
-        <v>273.3816535321583</v>
+        <v>273.3816535321582</v>
       </c>
       <c r="P46" t="n">
-        <v>222.1048493870424</v>
+        <v>222.1048493870423</v>
       </c>
       <c r="Q46" t="n">
-        <v>94.94313551350119</v>
+        <v>94.94313551350116</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
